--- a/Current_Financial_Model_FU_v1.xlsx
+++ b/Current_Financial_Model_FU_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francis/PycharmProjects/VerticalFarming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8A1C14-B440-9F4B-86FD-43D706700C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E63B07A-72B3-8E48-8F6A-BEB41850476C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="740" windowWidth="38360" windowHeight="20860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="740" windowWidth="38360" windowHeight="20860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="14" r:id="rId1"/>
@@ -2083,7 +2083,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="1061">
   <si>
     <t>Packaging types &amp; ROUGH Cost per package</t>
   </si>
@@ -2557,9 +2557,6 @@
   </si>
   <si>
     <t>Lighting Control</t>
-  </si>
-  <si>
-    <t>EDIT BLUE CELLS</t>
   </si>
   <si>
     <t>SOURCE DATA FOR PINK CELLS</t>
@@ -5741,7 +5738,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5758,12 +5755,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD5A6BD"/>
         <bgColor rgb="FFD5A6BD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
-        <bgColor rgb="FFA4C2F4"/>
       </patternFill>
     </fill>
     <fill>
@@ -6146,7 +6137,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="483">
+  <cellXfs count="482">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -6180,11 +6171,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3"/>
@@ -6210,26 +6201,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6238,10 +6229,10 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -6250,10 +6241,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="16" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="16" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="16" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -6266,7 +6257,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6284,24 +6275,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -6314,31 +6305,31 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="18" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="18" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="30" fillId="13" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="18" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="30" fillId="12" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -6355,27 +6346,27 @@
     </xf>
     <xf numFmtId="172" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="39" fontId="33" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="39" fontId="33" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -6444,17 +6435,17 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="13" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6464,27 +6455,27 @@
     </xf>
     <xf numFmtId="44" fontId="36" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="36" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="36" fillId="17" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="36" fillId="16" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="39" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="39" fillId="17" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="39" fillId="16" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="11" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="11" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="10" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -6498,47 +6489,47 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="17" fontId="15" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="18" fillId="19" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="18" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="18" fillId="18" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="18" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="18" fillId="19" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="18" fillId="18" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="174" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="18" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="43" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="18" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="18" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="174" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="16" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="16" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="18" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="18" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="28" fillId="25" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="28" fillId="24" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="39" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="36" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="18" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="36" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="18" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="39" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -6547,7 +6538,7 @@
     </xf>
     <xf numFmtId="10" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="36" fillId="23" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="36" fillId="22" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="36" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -6560,56 +6551,56 @@
     <xf numFmtId="172" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="36" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="36" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="36" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="19" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="36" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="19" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="39" fillId="25" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="39" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="18" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="16" fillId="17" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="16" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="0" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="64" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="16" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="0" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="64" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="40" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="65" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="40" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="65" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="66" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="66" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="66" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="66" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="66" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="66" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="66" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="66" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -6624,13 +6615,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="18" fillId="19" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="18" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="18" fillId="18" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="18" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -6639,179 +6630,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="30" fillId="20" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="30" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="30" fillId="26" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="30" fillId="26" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="26" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="33" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="33" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="30" fillId="33" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="33" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="30" fillId="32" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="30" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="30" fillId="19" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="30" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="30" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="172" fontId="30" fillId="25" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="30" fillId="25" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="30" fillId="25" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="25" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="32" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="30" fillId="32" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="30" fillId="32" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="30" fillId="32" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="32" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="32" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="30" fillId="25" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="30" fillId="25" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="32" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="30" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="26" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="174" fontId="18" fillId="26" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="18" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="35" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="16" fillId="35" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="0" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="30" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="26" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="26" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="26" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="174" fontId="30" fillId="26" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="26" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="26" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="20" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="174" fontId="16" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="16" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="28" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="18" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="18" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="174" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="18" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="30" fillId="32" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="16" fillId="25" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="18" fillId="25" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="18" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="16" fillId="34" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="16" fillId="34" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="25" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="0" fillId="25" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="30" fillId="25" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="25" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="25" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="25" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="30" fillId="25" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="25" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="25" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="20" fillId="25" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="16" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="16" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="28" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6851,10 +6831,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6864,16 +6854,16 @@
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -17525,18 +17515,18 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D1" s="380" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E1" s="381" t="s">
         <v>1056</v>
-      </c>
-      <c r="E1" s="381" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="401" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B2" s="209">
         <f>start_date</f>
@@ -17545,7 +17535,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="382" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B3" s="188">
         <f>facility_size_pilot</f>
@@ -17554,7 +17544,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="382" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B4" s="188">
         <f>percent_production_area_pilot</f>
@@ -17563,7 +17553,7 @@
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="406" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B5" s="189">
         <f>growing_levels_pilot</f>
@@ -17572,7 +17562,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="383" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B6" s="190" t="str">
         <f>weight_unit</f>
@@ -17581,7 +17571,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="382" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B7" s="188">
         <f>growing_area_mulitplier</f>
@@ -17590,7 +17580,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="386" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B8" s="188">
         <f>no_lights_pilot</f>
@@ -17599,7 +17589,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="384" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B9" s="191">
         <f>packaging_cost_pilot</f>
@@ -17608,7 +17598,7 @@
     </row>
     <row r="10" spans="1:5" s="210" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="384" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B10" s="191">
         <f>packaging_cost_full</f>
@@ -17617,7 +17607,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="385" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B11" s="192">
         <f>other_costs_pilot</f>
@@ -17626,7 +17616,7 @@
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="407" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B12" s="189" t="str">
         <f>farm_type</f>
@@ -17635,7 +17625,7 @@
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="406" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B13" s="189" t="str">
         <f>business_model</f>
@@ -17644,7 +17634,7 @@
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="406" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B14" s="189" t="str">
         <f>grower_exp</f>
@@ -17653,7 +17643,7 @@
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="406" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B15" s="189" t="str">
         <f>automation_level</f>
@@ -17662,7 +17652,7 @@
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="406" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B16" s="189" t="str">
         <f>climate_control</f>
@@ -17671,7 +17661,7 @@
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="406" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B17" s="189" t="str">
         <f>lighting_control</f>
@@ -17680,7 +17670,7 @@
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="406" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B18" s="189" t="str">
         <f>nutrient_control</f>
@@ -17689,7 +17679,7 @@
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="406" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B19" s="189" t="str">
         <f>system_type</f>
@@ -17698,7 +17688,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="398" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B20" s="193">
         <f>system_quantity</f>
@@ -17707,7 +17697,7 @@
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="406" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B21" s="189" t="str">
         <f>light_system</f>
@@ -17716,7 +17706,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="402" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B22" s="194" t="str">
         <f>growing_media</f>
@@ -17725,7 +17715,7 @@
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="406" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B23" s="189">
         <f>ceiling_height</f>
@@ -17734,7 +17724,7 @@
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="406" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B24" s="189" t="str" cm="1">
         <f t="array" ref="B24">insulation_level</f>
@@ -17743,7 +17733,7 @@
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="406" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B25" s="189" t="str">
         <f>roof_type</f>
@@ -17752,7 +17742,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="399" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B26" s="192" t="str">
         <f>co2_enrichment</f>
@@ -17761,7 +17751,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="400" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B27" s="195" t="str">
         <f>structure_type</f>
@@ -17770,7 +17760,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="392" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B28" s="196">
         <f>water_price</f>
@@ -17779,7 +17769,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="393" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B29" s="197">
         <f>electricity_price</f>
@@ -17788,7 +17778,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="394" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B30" s="198">
         <f>labour_improvement</f>
@@ -17797,7 +17787,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="395" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B31" s="198">
         <f>percentage_renewable_energy</f>
@@ -17806,7 +17796,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="382" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B32" s="188" t="str">
         <f>biosecurity_level</f>
@@ -17815,7 +17805,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="397" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B33" s="199">
         <f>loan_amount</f>
@@ -17824,7 +17814,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="395" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B34" s="198">
         <f>tax_rate</f>
@@ -17833,7 +17823,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="395" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B35" s="198">
         <f>loan_interest</f>
@@ -17842,7 +17832,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="382" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B36" s="200">
         <f>loan_tenure</f>
@@ -17851,7 +17841,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="382" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B37" s="200" t="str">
         <f>loan_type</f>
@@ -17860,7 +17850,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="382" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B38" s="188" t="str">
         <f>crop_typ1</f>
@@ -17869,7 +17859,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="395" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B39" s="198">
         <f>crop1_percent</f>
@@ -17878,7 +17868,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="382" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B40" s="194" t="str">
         <f>crop1_system</f>
@@ -17887,7 +17877,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="382" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B41" s="194">
         <f>crop1_harvest_weight</f>
@@ -17896,7 +17886,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="382" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B42" s="194">
         <f>crop1_product_weight</f>
@@ -17905,7 +17895,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="403" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B43" s="201">
         <f>crop1_customer_percent</f>
@@ -17914,7 +17904,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="404" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B44" s="202">
         <f>crop1_price1</f>
@@ -17923,7 +17913,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="404" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B45" s="202">
         <f>crop1_price2</f>
@@ -17932,7 +17922,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="382" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B46" s="194" t="str">
         <f>crop_typ2</f>
@@ -17941,7 +17931,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="396" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B47" s="203">
         <f>crop2_percent</f>
@@ -17950,7 +17940,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="382" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B48" s="194" t="str">
         <f>crop2_system</f>
@@ -17959,7 +17949,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="382" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B49" s="194">
         <f>crop2_harvest_weight</f>
@@ -17968,7 +17958,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="382" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B50" s="194">
         <f>crop2_product_weight</f>
@@ -17977,7 +17967,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="403" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B51" s="201">
         <f>crop2_customer_percent</f>
@@ -17986,7 +17976,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="404" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B52" s="202">
         <f>crop2_price1</f>
@@ -17995,7 +17985,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="404" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B53" s="202">
         <f>crop2_price2</f>
@@ -18004,7 +17994,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="382" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B54" s="194" t="str">
         <f>crop_typ3</f>
@@ -18013,7 +18003,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="396" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B55" s="203">
         <f>crop3_percent</f>
@@ -18022,7 +18012,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="382" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B56" s="194" t="str">
         <f>crop3_system</f>
@@ -18031,7 +18021,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="382" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B57" s="194">
         <f>crop3_harvest_weight</f>
@@ -18040,7 +18030,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="382" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B58" s="194">
         <f>crop3_product_weight</f>
@@ -18049,7 +18039,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="403" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B59" s="201">
         <f>crop3_customer_percent</f>
@@ -18058,7 +18048,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="404" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B60" s="202">
         <f>crop3_price1</f>
@@ -18067,7 +18057,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="404" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B61" s="202">
         <f>crop3_price2</f>
@@ -18076,7 +18066,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="382" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B62" s="194" t="str">
         <f>crop_typ4</f>
@@ -18085,7 +18075,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="395" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B63" s="198">
         <f>crop4_percent</f>
@@ -18094,7 +18084,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="382" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B64" s="194" t="str">
         <f>crop4_system</f>
@@ -18103,7 +18093,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="382" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B65" s="194">
         <f>crop4_harvest_weight</f>
@@ -18112,7 +18102,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="382" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B66" s="194">
         <f>crop4_product_weight</f>
@@ -18121,7 +18111,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="390" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B67" s="194">
         <f>crop4_customer_percent</f>
@@ -18130,7 +18120,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="404" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B68" s="202">
         <f>crop4_price1</f>
@@ -18139,7 +18129,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="404" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B69" s="202">
         <f>crop4_price2</f>
@@ -18148,7 +18138,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="390" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B70" s="188">
         <f>vadded_products_multiplier</f>
@@ -18157,7 +18147,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="390" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B71" s="188">
         <f>education_multiplier</f>
@@ -18166,7 +18156,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="390" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B72" s="188">
         <f>tourism_multiplier</f>
@@ -18175,7 +18165,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="390" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B73" s="188">
         <f>hospitality_multiplier</f>
@@ -18184,7 +18174,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="391" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B74" s="204">
         <f>vadded_avg_revenue_y1</f>
@@ -18193,7 +18183,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="391" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B75" s="204">
         <f>education_avg_revenue_y1</f>
@@ -18202,7 +18192,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="391" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B76" s="204">
         <f>tourism_avg_revenue_y1</f>
@@ -18211,7 +18201,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="391" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B77" s="204">
         <f>hospitality_avg_revenue_y1</f>
@@ -18220,7 +18210,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="391" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B78" s="205">
         <f>monthly_rent_y1</f>
@@ -18229,7 +18219,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="405" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B79" s="206">
         <f>monthly_distribution_y1</f>
@@ -18238,7 +18228,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="390" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B80" s="194">
         <f>monthly_rent_y2</f>
@@ -18247,7 +18237,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="390" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B81" s="194">
         <f>monthly_distribution_y2</f>
@@ -18256,7 +18246,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="409" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B82" s="204">
         <f>delivery_msalary</f>
@@ -18265,7 +18255,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="409" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B83" s="204">
         <f>farmhand_msalary</f>
@@ -18274,7 +18264,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="409" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B84" s="204">
         <f>parttime_wage</f>
@@ -18283,7 +18273,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="409" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B85" s="204">
         <f>ceo_msalary</f>
@@ -18292,7 +18282,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="409" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B86" s="204">
         <f>hgrower_msalary</f>
@@ -18301,7 +18291,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="409" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B87" s="204">
         <f>marketer_msalary</f>
@@ -18310,7 +18300,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="409" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B88" s="204">
         <f>scientist_msalary</f>
@@ -18319,7 +18309,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="409" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B89" s="204">
         <f>salesperson_msalary</f>
@@ -18328,7 +18318,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="409" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B90" s="204">
         <f>manager_msalary</f>
@@ -18337,7 +18327,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="409" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B91" s="204">
         <f>admin_msalary</f>
@@ -18346,7 +18336,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="382" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B92" s="188">
         <f>ceo_count_y1</f>
@@ -18355,7 +18345,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="382" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B93" s="188">
         <f>hgrower_count_y1</f>
@@ -18364,7 +18354,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="382" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B94" s="188">
         <f>marketer_count_y1</f>
@@ -18373,7 +18363,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="382" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B95" s="188">
         <f>scientist_count_y1</f>
@@ -18382,7 +18372,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="382" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B96" s="188">
         <f>salesperson_count_y1</f>
@@ -18391,7 +18381,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="382" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B97" s="188">
         <f>manager_count_y1</f>
@@ -18400,7 +18390,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="382" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B98" s="188">
         <f>delivery_count_y1</f>
@@ -18409,7 +18399,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="382" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B99" s="188">
         <f>farmhand_count_y1</f>
@@ -18418,7 +18408,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="382" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B100" s="188">
         <f>admin_count_y1</f>
@@ -18427,7 +18417,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="390" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B101" s="188">
         <f>parttime_count_y1</f>
@@ -18436,7 +18426,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="382" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B102" s="188">
         <f>ceo_count_y2</f>
@@ -18445,7 +18435,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="382" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B103" s="188">
         <f>hgrower_count_y2</f>
@@ -18454,7 +18444,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="382" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B104" s="188">
         <f>marketer_count_y2</f>
@@ -18463,7 +18453,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="382" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B105" s="188">
         <f>scientist_count_y2</f>
@@ -18472,7 +18462,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="382" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B106" s="188">
         <f>salesperson_count_y2</f>
@@ -18481,7 +18471,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="382" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B107" s="188">
         <f>manager_count_y2</f>
@@ -18490,7 +18480,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="382" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B108" s="188">
         <f>delivery_count_y2</f>
@@ -18499,7 +18489,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="382" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B109" s="188">
         <f>farmhand_count_y2</f>
@@ -18508,7 +18498,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="382" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B110" s="188">
         <f>admin_count_y2</f>
@@ -18517,7 +18507,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="390" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B111" s="188">
         <f>parttime_count_y2</f>
@@ -18526,7 +18516,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="388" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B112">
         <f>Overview!F101</f>
@@ -18535,7 +18525,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="388" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B113" s="102">
         <f>Overview!G101</f>
@@ -18544,7 +18534,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="388" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B114" s="212">
         <f>'CapEx Breakdown'!C39</f>
@@ -18553,7 +18543,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="388" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B115" s="212">
         <f>'CapEx Breakdown'!E39</f>
@@ -18562,7 +18552,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="388" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B116" s="86">
         <f>'CapEx Breakdown'!D26+'CapEx Breakdown'!C26</f>
@@ -18571,7 +18561,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="388" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B117" s="86">
         <f>('CapEx Breakdown'!D36+'CapEx Breakdown'!C36)-('CapEx Breakdown'!C26+'CapEx Breakdown'!D26)</f>
@@ -18580,7 +18570,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="388" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B118" s="86">
         <f>'CapEx Breakdown'!D16+'CapEx Breakdown'!D17+'CapEx Breakdown'!D18+'CapEx Breakdown'!C18+'CapEx Breakdown'!C17+'CapEx Breakdown'!C16</f>
@@ -18589,7 +18579,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="387" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B119">
         <f>target_productivity_space</f>
@@ -18598,7 +18588,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="387" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B120">
         <f>target_productivity_energy</f>
@@ -18607,7 +18597,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="387" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B121">
         <f>target_productivity_labour</f>
@@ -18616,7 +18606,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="387" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B122">
         <f>target_productivity_water</f>
@@ -18625,7 +18615,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="387" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B123">
         <f>target_productivity_nutrients</f>
@@ -18634,7 +18624,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="387" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B124">
         <f>target_productivity_volume</f>
@@ -18643,7 +18633,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="387" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B125">
         <f>target_productivity_plants</f>
@@ -18652,7 +18642,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="387" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B126">
         <f>target_productivity_CO2</f>
@@ -18661,7 +18651,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="387" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B127">
         <f>target_productivity_CO2_omitted</f>
@@ -18670,7 +18660,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="387" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B128">
         <f>target_productivity_CO2_net</f>
@@ -18679,7 +18669,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="387" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B129" t="str">
         <f>ipm</f>
@@ -18688,7 +18678,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="387" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B130" t="str">
         <f>pest_detection</f>
@@ -18697,15 +18687,15 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="387" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B131" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="387" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B132" s="321" t="str">
         <f>Overview!B12</f>
@@ -18714,7 +18704,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="387" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B133" s="85">
         <f>percent_production_area_full</f>
@@ -18723,7 +18713,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="387" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B134" t="str">
         <f>energy_type</f>
@@ -18732,7 +18722,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="389" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B135">
         <f>Overview!B62</f>
@@ -18741,7 +18731,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="389" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B136">
         <f>grant_revenue_y1</f>
@@ -18750,7 +18740,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="389" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B137">
         <f>grant_revenue_y2</f>
@@ -18759,7 +18749,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="389" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B138">
         <f>grant_revenue_y3</f>
@@ -18768,7 +18758,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="389" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B139">
         <f>grant_revenue_y4</f>
@@ -18777,7 +18767,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="389" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B140">
         <f>grant_revenue_y5</f>
@@ -18786,7 +18776,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="389" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B141">
         <f>grant_revenue_y6</f>
@@ -18795,7 +18785,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="389" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B142">
         <f>grant_revenue_y7</f>
@@ -18804,7 +18794,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="389" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B143">
         <f>grant_revenue_y8</f>
@@ -18813,7 +18803,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="389" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B144">
         <f>grant_revenue_y9</f>
@@ -18822,7 +18812,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="389" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B145">
         <f>grant_revenue_y10</f>
@@ -18831,7 +18821,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="389" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B146">
         <f>grant_revenue_y11</f>
@@ -18840,7 +18830,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="389" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B147">
         <f>daily_energy_consumption</f>
@@ -18849,7 +18839,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="389" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B148">
         <f>other_costs_full</f>
@@ -18898,7 +18888,7 @@
     <row r="1" spans="1:27" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="62"/>
       <c r="B1" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1" s="62"/>
       <c r="D1" s="62"/>
@@ -18993,7 +18983,7 @@
     <row r="4" spans="1:27" s="369" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="110" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C4" s="376">
         <f>Overview!B62+loan_amount</f>
@@ -19117,7 +19107,7 @@
     <row r="7" spans="1:27" s="369" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="40">
@@ -19567,7 +19557,7 @@
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="41">
         <f>Overview!F105</f>
@@ -19675,7 +19665,7 @@
     <row r="16" spans="1:27" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="67"/>
       <c r="D16" s="67">
@@ -19739,7 +19729,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -19753,7 +19743,7 @@
     <row r="17" spans="1:27" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
       <c r="B17" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" s="70"/>
       <c r="D17" s="67">
@@ -19829,7 +19819,7 @@
     <row r="18" spans="1:27" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C18" s="36">
         <f>Overview!F110</f>
@@ -19932,7 +19922,7 @@
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" s="67">
         <f>C14-C18</f>
@@ -20011,7 +20001,7 @@
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="42">
@@ -20087,7 +20077,7 @@
     <row r="22" spans="1:27" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="16">
@@ -20405,7 +20395,7 @@
     <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="104" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C30" s="104">
         <f>SUM(Overview!V71:V74)</f>
@@ -48864,7 +48854,7 @@
   </sheetPr>
   <dimension ref="A1:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F133" activeCellId="15" sqref="H16:K18 H21:K25 J49:J58 B30:B38 C37 B40:B48 B50:B54 B57:B62 C79:C82 F79:F82 H83:V83 F98:G98 F101:G101 B117:B119 B123:B129 F133:F142"/>
     </sheetView>
   </sheetViews>
@@ -48886,59 +48876,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="453" t="s">
-        <v>478</v>
-      </c>
-      <c r="B1" s="454"/>
-      <c r="C1" s="454"/>
-      <c r="D1" s="454"/>
-      <c r="E1" s="454"/>
-      <c r="F1" s="454"/>
-      <c r="G1" s="454"/>
-      <c r="H1" s="454"/>
+      <c r="A1" s="466" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" s="467"/>
+      <c r="C1" s="467"/>
+      <c r="D1" s="467"/>
+      <c r="E1" s="467"/>
+      <c r="F1" s="467"/>
+      <c r="G1" s="467"/>
+      <c r="H1" s="467"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="454"/>
-      <c r="B2" s="454"/>
-      <c r="C2" s="454"/>
-      <c r="D2" s="454"/>
-      <c r="E2" s="454"/>
-      <c r="F2" s="454"/>
-      <c r="G2" s="454"/>
-      <c r="H2" s="454"/>
+      <c r="A2" s="467"/>
+      <c r="B2" s="467"/>
+      <c r="C2" s="467"/>
+      <c r="D2" s="467"/>
+      <c r="E2" s="467"/>
+      <c r="F2" s="467"/>
+      <c r="G2" s="467"/>
+      <c r="H2" s="467"/>
     </row>
     <row r="3" spans="1:22" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="455" t="s">
-        <v>477</v>
-      </c>
-      <c r="B4" s="454"/>
-      <c r="C4" s="454"/>
-      <c r="D4" s="454"/>
-      <c r="E4" s="454"/>
-      <c r="F4" s="454"/>
-      <c r="G4" s="454"/>
-      <c r="H4" s="454"/>
+      <c r="A4" s="468" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" s="467"/>
+      <c r="C4" s="467"/>
+      <c r="D4" s="467"/>
+      <c r="E4" s="467"/>
+      <c r="F4" s="467"/>
+      <c r="G4" s="467"/>
+      <c r="H4" s="467"/>
     </row>
     <row r="5" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="456" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B5" s="457"/>
-      <c r="C5" s="457"/>
-      <c r="D5" s="457"/>
-      <c r="E5" s="457"/>
-      <c r="F5" s="457"/>
-      <c r="G5" s="457"/>
-      <c r="H5" s="457"/>
+      <c r="A5" s="469" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B5" s="470"/>
+      <c r="C5" s="470"/>
+      <c r="D5" s="470"/>
+      <c r="E5" s="470"/>
+      <c r="F5" s="470"/>
+      <c r="G5" s="470"/>
+      <c r="H5" s="470"/>
     </row>
     <row r="6" spans="1:22" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="77" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B6" s="78"/>
       <c r="C6" s="78"/>
@@ -48949,20 +48939,20 @@
       <c r="H6" s="78"/>
     </row>
     <row r="7" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="458" t="s">
-        <v>882</v>
-      </c>
-      <c r="B7" s="454"/>
-      <c r="C7" s="454"/>
-      <c r="D7" s="454"/>
-      <c r="E7" s="454"/>
-      <c r="F7" s="454"/>
-      <c r="G7" s="454"/>
-      <c r="H7" s="454"/>
+      <c r="A7" s="471" t="s">
+        <v>881</v>
+      </c>
+      <c r="B7" s="467"/>
+      <c r="C7" s="467"/>
+      <c r="D7" s="467"/>
+      <c r="E7" s="467"/>
+      <c r="F7" s="467"/>
+      <c r="G7" s="467"/>
+      <c r="H7" s="467"/>
     </row>
     <row r="8" spans="1:22" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="336" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B8" s="336"/>
       <c r="C8" s="336"/>
@@ -48974,12 +48964,12 @@
     </row>
     <row r="9" spans="1:22" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
@@ -49001,10 +48991,10 @@
     </row>
     <row r="12" spans="1:22" s="207" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="208" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B12" s="410" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
@@ -49015,7 +49005,7 @@
     </row>
     <row r="13" spans="1:22" s="207" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="208" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B13" s="410">
         <v>44228</v>
@@ -49036,36 +49026,36 @@
       <c r="Q14" s="140"/>
       <c r="R14" s="141"/>
       <c r="S14" s="141"/>
-      <c r="T14" s="452"/>
-      <c r="U14" s="452"/>
+      <c r="T14" s="465"/>
+      <c r="U14" s="465"/>
     </row>
     <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="142" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="142" t="s">
         <v>167</v>
-      </c>
-      <c r="C15" s="142" t="s">
-        <v>168</v>
       </c>
       <c r="D15" s="165"/>
       <c r="E15" s="165"/>
       <c r="F15" s="187" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G15" s="141"/>
       <c r="H15" s="115" t="s">
+        <v>294</v>
+      </c>
+      <c r="I15" s="115" t="s">
         <v>295</v>
       </c>
-      <c r="I15" s="115" t="s">
+      <c r="J15" s="115" t="s">
         <v>296</v>
       </c>
-      <c r="J15" s="115" t="s">
+      <c r="K15" s="115" t="s">
         <v>297</v>
-      </c>
-      <c r="K15" s="115" t="s">
-        <v>298</v>
       </c>
       <c r="L15" s="168" t="s">
         <v>63</v>
@@ -49083,7 +49073,7 @@
     </row>
     <row r="16" spans="1:22" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="115" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B16" s="411">
         <v>220</v>
@@ -49095,19 +49085,19 @@
       <c r="E16" s="165"/>
       <c r="F16" s="165"/>
       <c r="G16" s="183" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H16" s="419" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I16" s="420" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J16" s="420" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K16" s="420" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L16" s="219"/>
       <c r="M16" s="137"/>
@@ -49123,7 +49113,7 @@
     </row>
     <row r="17" spans="1:22" s="95" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="115" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B17" s="412">
         <v>0.27</v>
@@ -49136,7 +49126,7 @@
       <c r="E17" s="165"/>
       <c r="F17" s="165"/>
       <c r="G17" s="184" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H17" s="421">
         <v>1</v>
@@ -49167,7 +49157,7 @@
     </row>
     <row r="18" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="115" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B18" s="144">
         <f>B16*B17</f>
@@ -49180,25 +49170,25 @@
       <c r="D18" s="165"/>
       <c r="E18" s="165"/>
       <c r="F18" s="120" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G18" s="183" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H18" s="420" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I18" s="420" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J18" s="420" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K18" s="420" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L18" s="220" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M18" s="137"/>
       <c r="N18" s="136"/>
@@ -49223,11 +49213,11 @@
       </c>
       <c r="D19" s="165"/>
       <c r="E19" s="165"/>
-      <c r="F19" s="460" t="s">
-        <v>565</v>
+      <c r="F19" s="453" t="s">
+        <v>564</v>
       </c>
       <c r="G19" s="183" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H19" s="116">
         <f>VLOOKUP(H16, Database!$A$8:$Y$63, 4, FALSE)</f>
@@ -49262,7 +49252,7 @@
     </row>
     <row r="20" spans="1:22" s="91" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="158" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B20" s="413">
         <f>IF(system_type="ZipRack", system_quantity*Database!F66, growing_levels_pilot*growing_area_pilot)</f>
@@ -49274,9 +49264,9 @@
       </c>
       <c r="D20" s="165"/>
       <c r="E20" s="165"/>
-      <c r="F20" s="460"/>
+      <c r="F20" s="453"/>
       <c r="G20" s="177" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H20" s="368">
         <f>(VLOOKUP(H16, Database!$A$8:$Y$63, 5, FALSE))-VLOOKUP(crop_typ1, Database!A8:AB63, 28, FALSE)</f>
@@ -49307,13 +49297,13 @@
     </row>
     <row r="21" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="115" t="s">
+        <v>538</v>
+      </c>
+      <c r="B21" s="414" t="s">
         <v>539</v>
       </c>
-      <c r="B21" s="414" t="s">
-        <v>540</v>
-      </c>
       <c r="C21" s="147" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D21" s="165"/>
       <c r="E21" s="165"/>
@@ -49321,7 +49311,7 @@
         <v>112</v>
       </c>
       <c r="G21" s="183" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H21" s="420">
         <v>0.1</v>
@@ -49349,7 +49339,7 @@
     </row>
     <row r="22" spans="1:22" s="91" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="115" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B22" s="415">
         <v>2</v>
@@ -49358,10 +49348,10 @@
       <c r="D22" s="165"/>
       <c r="E22" s="165"/>
       <c r="F22" s="120" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G22" s="185" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H22" s="420">
         <v>0.3</v>
@@ -49379,7 +49369,7 @@
     </row>
     <row r="23" spans="1:22" s="108" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="115" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B23" s="415">
         <v>128</v>
@@ -49391,10 +49381,10 @@
       <c r="D23" s="165"/>
       <c r="E23" s="165"/>
       <c r="F23" s="120" t="s">
+        <v>544</v>
+      </c>
+      <c r="G23" s="185" t="s">
         <v>545</v>
-      </c>
-      <c r="G23" s="185" t="s">
-        <v>546</v>
       </c>
       <c r="H23" s="423">
         <v>0.85</v>
@@ -49411,7 +49401,7 @@
     </row>
     <row r="24" spans="1:22" s="91" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="115" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B24" s="416">
         <v>1.5</v>
@@ -49421,11 +49411,11 @@
       </c>
       <c r="D24" s="165"/>
       <c r="E24" s="165"/>
-      <c r="F24" s="469" t="s">
-        <v>304</v>
+      <c r="F24" s="462" t="s">
+        <v>303</v>
       </c>
       <c r="G24" s="186" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H24" s="424">
         <v>7.5</v>
@@ -49443,7 +49433,7 @@
     </row>
     <row r="25" spans="1:22" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="370" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B25" s="417">
         <v>2</v>
@@ -49453,9 +49443,9 @@
       </c>
       <c r="D25" s="165"/>
       <c r="E25" s="165"/>
-      <c r="F25" s="469"/>
+      <c r="F25" s="462"/>
       <c r="G25" s="186" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H25" s="424">
         <v>3</v>
@@ -49485,11 +49475,11 @@
       </c>
       <c r="D26" s="165"/>
       <c r="E26" s="165"/>
-      <c r="F26" s="468" t="s">
-        <v>498</v>
+      <c r="F26" s="461" t="s">
+        <v>497</v>
       </c>
       <c r="G26" s="183" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H26" s="378">
         <f>VLOOKUP(H16, Database!$A$8:$Y$63, MATCH(H18,Database!$A$7:$AA$7, 0),0)*stacked_growing_area_pilot*H17/12</f>
@@ -49514,7 +49504,7 @@
     </row>
     <row r="27" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="115" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B27" s="150">
         <f>SUM(F71:F74)</f>
@@ -49526,9 +49516,9 @@
       </c>
       <c r="D27" s="165"/>
       <c r="E27" s="165"/>
-      <c r="F27" s="468"/>
+      <c r="F27" s="461"/>
       <c r="G27" s="183" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H27" s="379">
         <f>VLOOKUP(H16, Database!$A$8:$Y$63, MATCH(H18,Database!$A$7:$AA$7, 0),0)*stacked_growing_area_full*H17/12</f>
@@ -49553,7 +49543,7 @@
     </row>
     <row r="28" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="115" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B28" s="261">
         <f>F75</f>
@@ -49563,11 +49553,11 @@
         <f>G75</f>
         <v>16188.488846093804</v>
       </c>
-      <c r="F28" s="466" t="s">
-        <v>536</v>
+      <c r="F28" s="459" t="s">
+        <v>535</v>
       </c>
       <c r="G28" s="120" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H28" s="259">
         <f>(H26/H22)*H24</f>
@@ -49596,9 +49586,9 @@
       </c>
       <c r="B29" s="45"/>
       <c r="C29" s="38"/>
-      <c r="F29" s="467"/>
+      <c r="F29" s="460"/>
       <c r="G29" s="120" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H29" s="290">
         <f>(H27/H22)*H24</f>
@@ -49626,14 +49616,14 @@
         <v>78</v>
       </c>
       <c r="B30" s="425" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="F30" s="470" t="s">
-        <v>535</v>
+      <c r="F30" s="463" t="s">
+        <v>534</v>
       </c>
       <c r="G30" s="120" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H30" s="117">
         <f>H40/H21</f>
@@ -49658,15 +49648,15 @@
     </row>
     <row r="31" spans="1:22" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="156" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B31" s="426" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C31" s="114"/>
-      <c r="F31" s="467"/>
+      <c r="F31" s="460"/>
       <c r="G31" s="120" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H31" s="118">
         <f>H41/H21</f>
@@ -49694,14 +49684,14 @@
         <v>76</v>
       </c>
       <c r="B32" s="427" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" s="114"/>
-      <c r="F32" s="462" t="s">
-        <v>488</v>
+      <c r="F32" s="455" t="s">
+        <v>487</v>
       </c>
       <c r="G32" s="134" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H32" s="130">
         <f>H30*LOOKUP(H16, Consumables!$A$36:$A$117, Consumables!$D$36:$D$117)*(1/LOOKUP(H16, Consumables!$A$36:$A$117, Consumables!$G$36:$G$117))</f>
@@ -49729,12 +49719,12 @@
         <v>75</v>
       </c>
       <c r="B33" s="425" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" s="114"/>
-      <c r="F33" s="463"/>
+      <c r="F33" s="456"/>
       <c r="G33" s="134" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H33" s="130">
         <f>H31*LOOKUP(H16, Consumables!$A$36:$A$117, Consumables!$D$36:$D$117)*(1/LOOKUP(H16, Consumables!$A$36:$A$117, Consumables!$G$36:$G$117))</f>
@@ -49762,11 +49752,11 @@
         <v>74</v>
       </c>
       <c r="B34" s="428" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C34" s="114"/>
       <c r="F34" s="169" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G34" s="165"/>
       <c r="H34" s="259">
@@ -49795,13 +49785,13 @@
         <v>157</v>
       </c>
       <c r="B35" s="428" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="461" t="s">
-        <v>562</v>
+        <v>162</v>
+      </c>
+      <c r="F35" s="454" t="s">
+        <v>561</v>
       </c>
       <c r="G35" s="120" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H35" s="167">
         <f>VLOOKUP($B34,Database!$A$118:$F$120,3,FALSE)</f>
@@ -49823,17 +49813,17 @@
     </row>
     <row r="36" spans="1:22" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="163" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B36" s="428" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C36" s="159" t="s">
-        <v>449</v>
-      </c>
-      <c r="F36" s="461"/>
+        <v>448</v>
+      </c>
+      <c r="F36" s="454"/>
       <c r="G36" s="120" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H36" s="167">
         <f>VLOOKUP($B36,Database!$A$118:$F$120,4,FALSE)</f>
@@ -49858,14 +49848,14 @@
         <v>73</v>
       </c>
       <c r="B37" s="429" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C37" s="431">
         <v>8</v>
       </c>
-      <c r="F37" s="461"/>
+      <c r="F37" s="454"/>
       <c r="G37" s="120" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H37" s="167">
         <f>VLOOKUP($B35,Database!$A$118:$F$120,2,FALSE)</f>
@@ -49887,18 +49877,18 @@
     </row>
     <row r="38" spans="1:22" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="157" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B38" s="430" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C38" s="152">
         <f>C37*16</f>
         <v>128</v>
       </c>
-      <c r="F38" s="461"/>
+      <c r="F38" s="454"/>
       <c r="G38" s="120" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H38" s="119">
         <f>VLOOKUP($B$44,Database!$A121:$F122, 6, FALSE)</f>
@@ -49927,9 +49917,9 @@
         <f>C37*VLOOKUP(B37, Database!A66:J76, 5, FALSE)</f>
         <v>2880</v>
       </c>
-      <c r="F39" s="461"/>
+      <c r="F39" s="454"/>
       <c r="G39" s="120" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H39" s="119">
         <f>SUM(H35:H38)</f>
@@ -49951,17 +49941,17 @@
     </row>
     <row r="40" spans="1:22" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="180" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B40" s="420" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C40" s="114"/>
-      <c r="F40" s="464" t="s">
-        <v>537</v>
+      <c r="F40" s="457" t="s">
+        <v>536</v>
       </c>
       <c r="G40" s="134" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H40" s="174">
         <f>H26*H35*H36*H37*H38</f>
@@ -49983,15 +49973,15 @@
     </row>
     <row r="41" spans="1:22" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="157" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B41" s="430">
         <v>4</v>
       </c>
       <c r="C41" s="114"/>
-      <c r="F41" s="465"/>
+      <c r="F41" s="458"/>
       <c r="G41" s="134" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H41" s="178">
         <f>H27*H35*H36*H37*H38</f>
@@ -50019,15 +50009,15 @@
         <v>72</v>
       </c>
       <c r="B42" s="425" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C42" s="114"/>
       <c r="D42" s="46"/>
-      <c r="F42" s="460" t="s">
-        <v>560</v>
+      <c r="F42" s="453" t="s">
+        <v>559</v>
       </c>
       <c r="G42" s="177" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H42" s="119">
         <f>(H30/VLOOKUP($B$37, Database!$A$66:$J$76, 5, FALSE))/4</f>
@@ -50051,12 +50041,12 @@
         <v>70</v>
       </c>
       <c r="B43" s="425" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C43" s="114"/>
-      <c r="F43" s="460"/>
+      <c r="F43" s="453"/>
       <c r="G43" s="134" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H43" s="119">
         <f>H42*B22</f>
@@ -50077,17 +50067,17 @@
     </row>
     <row r="44" spans="1:22" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="115" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B44" s="432" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C44" s="114"/>
-      <c r="F44" s="471" t="s">
-        <v>953</v>
+      <c r="F44" s="464" t="s">
+        <v>952</v>
       </c>
       <c r="G44" s="134" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H44" s="119">
         <f>m1_wa_yield_crop1/crop1_product_weight</f>
@@ -50108,15 +50098,15 @@
     </row>
     <row r="45" spans="1:22" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="115" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B45" s="433" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C45" s="114"/>
-      <c r="F45" s="471"/>
+      <c r="F45" s="464"/>
       <c r="G45" s="134" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H45" s="119">
         <f>m2_wa_yield_crop1/crop1_product_weight</f>
@@ -50137,25 +50127,25 @@
     </row>
     <row r="46" spans="1:22" s="111" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="115" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B46" s="434">
         <v>1.91E-3</v>
       </c>
       <c r="C46" s="114"/>
       <c r="F46" s="108"/>
-      <c r="G46" s="459" t="s">
-        <v>550</v>
-      </c>
-      <c r="H46" s="459"/>
-      <c r="I46" s="459"/>
+      <c r="G46" s="452" t="s">
+        <v>549</v>
+      </c>
+      <c r="H46" s="452"/>
+      <c r="I46" s="452"/>
       <c r="J46" s="108"/>
       <c r="K46" s="108"/>
       <c r="L46" s="108"/>
     </row>
     <row r="47" spans="1:22" s="369" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="115" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B47" s="435">
         <f>Database!I170</f>
@@ -50168,49 +50158,49 @@
     </row>
     <row r="48" spans="1:22" s="95" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="115" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B48" s="436">
         <v>7.3400000000000007E-2</v>
       </c>
       <c r="C48" s="114"/>
       <c r="F48" s="131" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G48" s="134" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H48" s="134" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I48" s="165"/>
       <c r="J48" s="165" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K48" s="165" t="s">
+        <v>631</v>
+      </c>
+      <c r="L48" s="165" t="s">
         <v>632</v>
-      </c>
-      <c r="L48" s="165" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="115" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B49" s="153">
         <v>0.05</v>
       </c>
       <c r="C49" s="45"/>
       <c r="F49" s="120" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G49" s="119">
         <f>SUM(I71:I74)</f>
         <v>8538.9831276099176</v>
       </c>
       <c r="H49" s="120" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I49" s="119">
         <f>SUM(V71:V74)/growing_area_full</f>
@@ -50229,21 +50219,21 @@
     </row>
     <row r="50" spans="1:12" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="96" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B50" s="437">
         <v>0</v>
       </c>
       <c r="C50" s="45"/>
       <c r="F50" s="165" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G50" s="119">
         <f>((C23*VLOOKUP(Overview!B38, Database!A78:X99, 6, FALSE)*L19*365/1000))+(B47*365)</f>
         <v>216872.91979499999</v>
       </c>
       <c r="H50" s="120" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I50" s="119">
         <f>(SUM(I71:I74)/G50)</f>
@@ -50262,21 +50252,21 @@
     </row>
     <row r="51" spans="1:12" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="175" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B51" s="438" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" s="45"/>
       <c r="F51" s="120" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G51" s="181">
         <f>'Production Technologies'!H72*12</f>
         <v>2132</v>
       </c>
       <c r="H51" s="120" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I51" s="182">
         <f>G49/G51</f>
@@ -50295,21 +50285,21 @@
     </row>
     <row r="52" spans="1:12" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="175" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B52" s="420" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C52" s="45"/>
       <c r="F52" s="120" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G52" s="181">
         <f>(C37*0.95*365)+1900*12</f>
         <v>25574</v>
       </c>
       <c r="H52" s="115" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I52" s="182">
         <f>G49/G52</f>
@@ -50328,20 +50318,20 @@
     </row>
     <row r="53" spans="1:12" s="81" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="175" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B53" s="420" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C53" s="45"/>
       <c r="F53" s="120" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G53" s="181">
         <v>1000</v>
       </c>
       <c r="H53" s="120" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I53" s="119">
         <f>G49/G53</f>
@@ -50360,23 +50350,23 @@
     </row>
     <row r="54" spans="1:12" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="337" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B54" s="420" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C54" s="45"/>
       <c r="D54" s="46"/>
       <c r="E54" s="46"/>
       <c r="F54" s="120" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G54" s="119">
         <f>B18*B19/2.5</f>
         <v>23.76</v>
       </c>
       <c r="H54" s="120" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I54" s="119">
         <f>G49/G54</f>
@@ -50397,14 +50387,14 @@
       <c r="D55" s="6"/>
       <c r="E55" s="39"/>
       <c r="F55" s="120" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G55" s="182">
         <f>(G50*Database!B140/1000000)</f>
         <v>50.531390312234997</v>
       </c>
       <c r="H55" s="120" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I55" s="165">
         <f>G49/G55</f>
@@ -50423,21 +50413,21 @@
     </row>
     <row r="56" spans="1:12" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B56" s="51"/>
       <c r="C56" s="39"/>
       <c r="D56" s="6"/>
       <c r="E56" s="39"/>
       <c r="F56" s="120" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G56" s="182">
         <f>((G50*B50*0.283)/1000)+((G52*20/1000000)*344/1000)</f>
         <v>0.17594912000000001</v>
       </c>
       <c r="H56" s="120" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I56" s="119">
         <f>G49/G56</f>
@@ -50456,7 +50446,7 @@
     </row>
     <row r="57" spans="1:12" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="154" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B57" s="439">
         <v>158000</v>
@@ -50465,14 +50455,14 @@
       <c r="D57" s="6"/>
       <c r="E57" s="39"/>
       <c r="F57" s="120" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G57" s="119">
         <f>G55-G56</f>
         <v>50.355441192234998</v>
       </c>
       <c r="H57" s="120" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I57" s="119">
         <f>G49/G57</f>
@@ -50500,14 +50490,14 @@
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
       <c r="F58" s="120" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G58" s="119">
         <f>SUM(H31:K31)*12</f>
         <v>101642.46075002878</v>
       </c>
       <c r="H58" s="120" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I58" s="119">
         <f>G58/C18</f>
@@ -50526,7 +50516,7 @@
     </row>
     <row r="59" spans="1:12" s="28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="155" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B59" s="412">
         <v>0.05</v>
@@ -50536,7 +50526,7 @@
     </row>
     <row r="60" spans="1:12" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="155" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B60" s="440">
         <v>7</v>
@@ -50546,17 +50536,17 @@
     </row>
     <row r="61" spans="1:12" s="28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="155" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" s="440" t="s">
         <v>210</v>
-      </c>
-      <c r="B61" s="440" t="s">
-        <v>211</v>
       </c>
       <c r="C61" s="45"/>
       <c r="J61"/>
     </row>
     <row r="62" spans="1:12" s="369" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="155" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B62" s="441">
         <v>89000</v>
@@ -50569,7 +50559,7 @@
     </row>
     <row r="64" spans="1:12" s="95" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="222" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B64" s="333"/>
       <c r="C64" s="28"/>
@@ -50606,7 +50596,7 @@
     </row>
     <row r="68" spans="1:22" s="95" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="142" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B68" s="335">
         <f>B57+grant_revenue_y1+grant_revenue_y2-B67</f>
@@ -50616,15 +50606,15 @@
     <row r="69" spans="1:22" s="95" customFormat="1" ht="13" x14ac:dyDescent="0.15"/>
     <row r="70" spans="1:22" s="28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B70" s="76"/>
       <c r="C70" s="45"/>
       <c r="F70" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="G70" s="44" t="s">
         <v>458</v>
-      </c>
-      <c r="G70" s="44" t="s">
-        <v>459</v>
       </c>
       <c r="H70" s="29" t="s">
         <v>21</v>
@@ -50674,10 +50664,10 @@
     </row>
     <row r="71" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B71" s="94" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C71" s="45"/>
       <c r="D71" s="28"/>
@@ -50753,7 +50743,7 @@
     </row>
     <row r="72" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="48" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B72" s="94"/>
       <c r="C72" s="45"/>
@@ -50830,7 +50820,7 @@
     </row>
     <row r="73" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="48" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B73" s="94"/>
       <c r="C73" s="45"/>
@@ -50907,7 +50897,7 @@
     </row>
     <row r="74" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="48" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B74" s="76"/>
       <c r="C74" s="45"/>
@@ -50984,7 +50974,7 @@
     </row>
     <row r="75" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B75" s="76"/>
       <c r="C75" s="45"/>
@@ -51121,15 +51111,15 @@
         <v>19</v>
       </c>
       <c r="C77" s="110" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D77" s="128"/>
       <c r="E77" s="128"/>
       <c r="F77" s="110" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G77" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H77" s="110" t="s">
         <v>21</v>
@@ -51578,10 +51568,10 @@
     </row>
     <row r="83" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="129" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B83" s="160" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C83" s="164"/>
       <c r="D83" s="128"/>
@@ -51741,7 +51731,7 @@
     </row>
     <row r="86" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B86" s="128"/>
       <c r="C86" s="128"/>
@@ -51751,7 +51741,7 @@
         <v>20</v>
       </c>
       <c r="G86" s="44" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H86" s="110" t="s">
         <v>21</v>
@@ -52477,7 +52467,7 @@
     </row>
     <row r="97" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B97" s="110"/>
       <c r="C97" s="128"/>
@@ -52487,7 +52477,7 @@
         <v>20</v>
       </c>
       <c r="G97" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H97" s="110" t="s">
         <v>21</v>
@@ -52613,7 +52603,7 @@
     </row>
     <row r="99" spans="1:22" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="129" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B99" s="127" t="s">
         <v>44</v>
@@ -52692,10 +52682,10 @@
     </row>
     <row r="100" spans="1:22" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="129" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B100" s="129" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C100" s="128"/>
       <c r="D100" s="128"/>
@@ -52771,7 +52761,7 @@
     </row>
     <row r="101" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="129" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B101" s="129" t="s">
         <v>100</v>
@@ -52848,7 +52838,7 @@
     </row>
     <row r="102" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="129" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B102" s="129" t="s">
         <v>100</v>
@@ -53028,7 +53018,7 @@
     </row>
     <row r="105" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B105" s="125"/>
       <c r="C105" s="126"/>
@@ -53129,7 +53119,7 @@
     </row>
     <row r="107" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B107" s="67"/>
       <c r="C107" s="128"/>
@@ -53206,7 +53196,7 @@
     </row>
     <row r="108" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B108" s="70"/>
       <c r="C108" s="128"/>
@@ -53283,7 +53273,7 @@
     </row>
     <row r="109" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B109" s="75"/>
       <c r="C109" s="64"/>
@@ -53354,7 +53344,7 @@
     </row>
     <row r="110" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B110" s="110"/>
       <c r="C110" s="110"/>
@@ -53455,7 +53445,7 @@
     </row>
     <row r="112" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B112" s="110"/>
       <c r="C112" s="110"/>
@@ -53606,7 +53596,7 @@
     </row>
     <row r="116" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="110" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B116" s="110" t="s">
         <v>59</v>
@@ -53620,7 +53610,7 @@
         <v>20</v>
       </c>
       <c r="G116" s="110" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H116" s="110" t="s">
         <v>21</v>
@@ -53834,7 +53824,7 @@
     </row>
     <row r="119" spans="1:22" s="171" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="129" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B119" s="451">
         <v>9.5</v>
@@ -54014,7 +54004,7 @@
     </row>
     <row r="122" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="110" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B122" s="110" t="s">
         <v>59</v>
@@ -54474,7 +54464,7 @@
     </row>
     <row r="128" spans="1:22" s="133" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="129" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B128" s="450">
         <v>2025</v>
@@ -54554,7 +54544,7 @@
     </row>
     <row r="129" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="129" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B129" s="450">
         <v>624</v>
@@ -54735,7 +54725,7 @@
     </row>
     <row r="132" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="110" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B132" s="110"/>
       <c r="C132" s="128"/>
@@ -55136,7 +55126,7 @@
     </row>
     <row r="138" spans="1:22" s="133" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="129" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F138" s="442">
         <v>1</v>
@@ -55337,7 +55327,7 @@
     </row>
     <row r="141" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="129" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B141" s="128"/>
       <c r="C141" s="128"/>
@@ -55406,7 +55396,7 @@
     </row>
     <row r="142" spans="1:22" s="171" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="129" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F142" s="442">
         <f>40*4.333</f>
@@ -55542,20 +55532,20 @@
     </row>
     <row r="146" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P146" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="147" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P147" s="38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Q147" s="38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="148" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P148" s="38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q148" s="135">
         <v>3</v>
@@ -55563,7 +55553,7 @@
     </row>
     <row r="149" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P149" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Q149" s="135">
         <v>7</v>
@@ -55571,7 +55561,7 @@
     </row>
     <row r="150" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P150" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Q150" s="135">
         <v>21</v>
@@ -55579,7 +55569,7 @@
     </row>
     <row r="151" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P151" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Q151" s="135">
         <v>38</v>
@@ -55587,7 +55577,7 @@
     </row>
     <row r="152" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P152" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Q152" s="135">
         <v>12</v>
@@ -55595,7 +55585,7 @@
     </row>
     <row r="153" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P153" s="38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q153" s="135">
         <v>6</v>
@@ -55603,7 +55593,7 @@
     </row>
     <row r="154" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P154" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Q154" s="135">
         <v>6</v>
@@ -55611,7 +55601,7 @@
     </row>
     <row r="155" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P155" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Q155" s="135">
         <v>7</v>
@@ -55628,6 +55618,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A7:H7"/>
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="F42:F43"/>
     <mergeCell ref="F35:F39"/>
@@ -55639,11 +55634,6 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="F44:F45"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A7:H7"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="L17">
@@ -55795,8 +55785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1AB830-BB86-434F-80B6-DAC5753A91A4}">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -55815,7 +55805,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="81"/>
@@ -55826,38 +55816,38 @@
       <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="455" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="455"/>
-      <c r="C2" s="454"/>
-      <c r="D2" s="454"/>
-      <c r="E2" s="454"/>
-      <c r="F2" s="454"/>
-      <c r="G2" s="454"/>
-      <c r="H2" s="454"/>
-      <c r="I2" s="454"/>
-      <c r="J2" s="454"/>
-      <c r="K2" s="454"/>
+      <c r="A2" s="468" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="468"/>
+      <c r="C2" s="467"/>
+      <c r="D2" s="467"/>
+      <c r="E2" s="467"/>
+      <c r="F2" s="467"/>
+      <c r="G2" s="467"/>
+      <c r="H2" s="467"/>
+      <c r="I2" s="467"/>
+      <c r="J2" s="467"/>
+      <c r="K2" s="467"/>
     </row>
     <row r="3" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="473" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="473"/>
-      <c r="C3" s="454"/>
-      <c r="D3" s="454"/>
-      <c r="E3" s="454"/>
-      <c r="F3" s="454"/>
-      <c r="G3" s="454"/>
-      <c r="H3" s="454"/>
-      <c r="I3" s="454"/>
-      <c r="J3" s="454"/>
-      <c r="K3" s="454"/>
+      <c r="A3" s="469" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B3" s="469"/>
+      <c r="C3" s="470"/>
+      <c r="D3" s="470"/>
+      <c r="E3" s="470"/>
+      <c r="F3" s="470"/>
+      <c r="G3" s="470"/>
+      <c r="H3" s="470"/>
+      <c r="I3" s="470"/>
+      <c r="J3" s="470"/>
+      <c r="K3" s="470"/>
     </row>
     <row r="4" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B4" s="77"/>
       <c r="C4" s="78"/>
@@ -55871,23 +55861,23 @@
       <c r="K4" s="78"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="458" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="458"/>
-      <c r="C5" s="454"/>
-      <c r="D5" s="454"/>
-      <c r="E5" s="454"/>
-      <c r="F5" s="454"/>
-      <c r="G5" s="454"/>
-      <c r="H5" s="454"/>
-      <c r="I5" s="454"/>
-      <c r="J5" s="454"/>
-      <c r="K5" s="454"/>
+      <c r="A5" s="471" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="471"/>
+      <c r="C5" s="467"/>
+      <c r="D5" s="467"/>
+      <c r="E5" s="467"/>
+      <c r="F5" s="467"/>
+      <c r="G5" s="467"/>
+      <c r="H5" s="467"/>
+      <c r="I5" s="467"/>
+      <c r="J5" s="467"/>
+      <c r="K5" s="467"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="79"/>
       <c r="C6" s="80"/>
@@ -55902,7 +55892,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7" s="72"/>
       <c r="C7" s="81"/>
@@ -55914,7 +55904,7 @@
     </row>
     <row r="8" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
@@ -55938,7 +55928,7 @@
     </row>
     <row r="10" spans="1:11" s="81" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="83"/>
@@ -55953,10 +55943,10 @@
     <row r="11" spans="1:11" s="97" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="155" t="s">
+        <v>877</v>
+      </c>
+      <c r="C11" s="155" t="s">
         <v>878</v>
-      </c>
-      <c r="C11" s="155" t="s">
-        <v>879</v>
       </c>
       <c r="D11" s="98"/>
       <c r="E11" s="98"/>
@@ -55964,7 +55954,7 @@
     </row>
     <row r="12" spans="1:11" s="97" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="155" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="320">
         <f>facility_size_pilot</f>
@@ -55980,7 +55970,7 @@
     </row>
     <row r="13" spans="1:11" s="97" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="155" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B13" s="320">
         <f>facility_size_full</f>
@@ -56001,7 +55991,7 @@
       <c r="D14" s="83"/>
       <c r="E14" s="83"/>
       <c r="F14" s="472" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G14" s="472"/>
       <c r="H14" s="472"/>
@@ -56011,38 +56001,38 @@
     </row>
     <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="222" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="155" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="155" t="s">
         <v>232</v>
       </c>
-      <c r="B15" s="155" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="155" t="s">
+      <c r="D15" s="155" t="s">
+        <v>424</v>
+      </c>
+      <c r="E15" s="155" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" s="223" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" s="224" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="155" t="s">
-        <v>425</v>
-      </c>
-      <c r="E15" s="155" t="s">
-        <v>251</v>
-      </c>
-      <c r="F15" s="223" t="s">
-        <v>235</v>
-      </c>
-      <c r="G15" s="224" t="s">
-        <v>234</v>
-      </c>
       <c r="H15" s="154" t="s">
+        <v>229</v>
+      </c>
+      <c r="I15" s="154" t="s">
         <v>230</v>
-      </c>
-      <c r="I15" s="154" t="s">
-        <v>231</v>
       </c>
       <c r="J15" s="81"/>
       <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11" s="81" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B16" s="318">
         <v>0</v>
@@ -56074,7 +56064,7 @@
     </row>
     <row r="17" spans="1:11" s="81" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="155" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B17" s="318">
         <v>0</v>
@@ -56108,7 +56098,7 @@
     </row>
     <row r="18" spans="1:11" s="81" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="155" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B18" s="318">
         <v>0</v>
@@ -56142,7 +56132,7 @@
     </row>
     <row r="19" spans="1:11" s="81" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="155" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B19" s="318">
         <v>0</v>
@@ -56167,7 +56157,7 @@
     </row>
     <row r="20" spans="1:11" s="408" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="155" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B20" s="318">
         <v>0</v>
@@ -56192,7 +56182,7 @@
     </row>
     <row r="21" spans="1:11" s="81" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="155" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B21" s="294">
         <v>0</v>
@@ -56219,7 +56209,7 @@
     </row>
     <row r="22" spans="1:11" s="81" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="222" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22" s="294">
         <f>SUM(B16:B21)</f>
@@ -56256,36 +56246,36 @@
     </row>
     <row r="24" spans="1:11" s="81" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="222" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" s="155" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C24" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="155" t="s">
+        <v>424</v>
+      </c>
+      <c r="E24" s="155" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24" s="223" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" s="224" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="155" t="s">
-        <v>425</v>
-      </c>
-      <c r="E24" s="155" t="s">
-        <v>251</v>
-      </c>
-      <c r="F24" s="223" t="s">
-        <v>235</v>
-      </c>
-      <c r="G24" s="224" t="s">
-        <v>234</v>
-      </c>
       <c r="H24" s="154" t="s">
+        <v>229</v>
+      </c>
+      <c r="I24" s="154" t="s">
         <v>230</v>
-      </c>
-      <c r="I24" s="154" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="81" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="155" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" s="318">
         <v>0</v>
@@ -56318,7 +56308,7 @@
     </row>
     <row r="26" spans="1:11" s="81" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="155" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B26" s="318">
         <v>0</v>
@@ -56354,7 +56344,7 @@
     </row>
     <row r="27" spans="1:11" s="81" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="155" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" s="318">
         <v>0</v>
@@ -56387,7 +56377,7 @@
     </row>
     <row r="28" spans="1:11" s="81" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="155" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" s="318">
         <v>0</v>
@@ -56422,7 +56412,7 @@
     </row>
     <row r="29" spans="1:11" s="81" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="155" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" s="318">
         <v>0</v>
@@ -56455,7 +56445,7 @@
     </row>
     <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="155" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30" s="294">
         <v>0</v>
@@ -56491,7 +56481,7 @@
     </row>
     <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="155" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B31" s="294">
         <v>0</v>
@@ -56526,7 +56516,7 @@
     </row>
     <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="155" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B32" s="294">
         <v>0</v>
@@ -56561,7 +56551,7 @@
     </row>
     <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="155" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B33" s="318">
         <v>0</v>
@@ -56596,7 +56586,7 @@
     </row>
     <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="155" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B34" s="318">
         <v>0</v>
@@ -56632,7 +56622,7 @@
     </row>
     <row r="35" spans="1:11" s="369" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="155" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B35" s="318">
         <v>0</v>
@@ -56665,7 +56655,7 @@
     </row>
     <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="222" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B36" s="319">
         <v>0</v>
@@ -56708,26 +56698,26 @@
       <c r="A38" s="48"/>
       <c r="B38" s="48"/>
       <c r="C38" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="E38" s="48" t="s">
         <v>281</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>282</v>
       </c>
       <c r="F38" s="48"/>
       <c r="G38" s="58"/>
       <c r="H38" s="58"/>
       <c r="I38" s="58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J38" s="81"/>
       <c r="K38" s="81"/>
     </row>
     <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="304" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B39" s="304"/>
       <c r="C39" s="315">
@@ -56752,7 +56742,7 @@
     </row>
     <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="316" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C40" s="317">
         <f ca="1">LOOKUP(Overview!$B$12, 'CapEx Breakdown'!$D$46:$H$46, 'CapEx Breakdown'!$D$53:$G$53)*C12</f>
@@ -56772,12 +56762,12 @@
     </row>
     <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="60" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="81" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B45" s="58"/>
       <c r="C45" s="58"/>
@@ -56786,39 +56776,39 @@
     </row>
     <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="187" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B46" s="154" t="s">
+        <v>247</v>
+      </c>
+      <c r="C46" s="154" t="s">
         <v>248</v>
       </c>
-      <c r="C46" s="154" t="s">
-        <v>249</v>
-      </c>
       <c r="D46" s="154" t="s">
+        <v>809</v>
+      </c>
+      <c r="E46" s="154" t="s">
         <v>810</v>
       </c>
-      <c r="E46" s="154" t="s">
+      <c r="F46" s="154" t="s">
+        <v>805</v>
+      </c>
+      <c r="G46" s="154" t="s">
+        <v>814</v>
+      </c>
+      <c r="H46" s="154" t="s">
+        <v>815</v>
+      </c>
+      <c r="J46" s="308" t="s">
         <v>811</v>
       </c>
-      <c r="F46" s="154" t="s">
-        <v>806</v>
-      </c>
-      <c r="G46" s="154" t="s">
-        <v>815</v>
-      </c>
-      <c r="H46" s="154" t="s">
-        <v>816</v>
-      </c>
-      <c r="J46" s="308" t="s">
+      <c r="K46" s="154" t="s">
         <v>812</v>
-      </c>
-      <c r="K46" s="154" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="296" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B47" s="154"/>
       <c r="C47" s="154"/>
@@ -56837,7 +56827,7 @@
     </row>
     <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="154" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B48" s="309">
         <v>795</v>
@@ -56875,7 +56865,7 @@
     </row>
     <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="154" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B49" s="309">
         <v>437</v>
@@ -56913,7 +56903,7 @@
     </row>
     <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="154" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B50" s="309">
         <v>995</v>
@@ -56951,7 +56941,7 @@
     </row>
     <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="296" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B51" s="309"/>
       <c r="C51" s="309"/>
@@ -56979,7 +56969,7 @@
     </row>
     <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="154" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B52" s="309">
         <v>2490</v>
@@ -57011,7 +57001,7 @@
     </row>
     <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="154" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B53" s="309">
         <v>1328</v>
@@ -57043,7 +57033,7 @@
     </row>
     <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="154" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B54" s="309">
         <v>2490</v>
@@ -57075,7 +57065,7 @@
     </row>
     <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="296" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B55" s="309"/>
       <c r="C55" s="309"/>
@@ -57103,7 +57093,7 @@
     </row>
     <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="154" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B56" s="309">
         <v>1936</v>
@@ -57135,7 +57125,7 @@
     </row>
     <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="154" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B57" s="309">
         <v>883</v>
@@ -57167,7 +57157,7 @@
     </row>
     <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="154" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B58" s="309">
         <v>1787</v>
@@ -57205,21 +57195,21 @@
     </row>
     <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="187" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B60" s="154" t="s">
+        <v>524</v>
+      </c>
+      <c r="C60" s="154" t="s">
+        <v>807</v>
+      </c>
+      <c r="D60" s="154" t="s">
         <v>525</v>
-      </c>
-      <c r="C60" s="154" t="s">
-        <v>808</v>
-      </c>
-      <c r="D60" s="154" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="154" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B61" s="298">
         <f>SUM(B62:B66)</f>
@@ -57236,7 +57226,7 @@
     </row>
     <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="154" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B62" s="154">
         <f>50/1000</f>
@@ -57253,7 +57243,7 @@
     </row>
     <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="154" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B63" s="154">
         <f>250/1000</f>
@@ -57270,7 +57260,7 @@
     </row>
     <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="154" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B64" s="154">
         <f>124/1000</f>
@@ -57287,7 +57277,7 @@
     </row>
     <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="154" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B65" s="154">
         <f>150/1000</f>
@@ -57304,7 +57294,7 @@
     </row>
     <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="154" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B66" s="154">
         <f>426/1000</f>
@@ -57321,7 +57311,7 @@
     </row>
     <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="154" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B67" s="154"/>
       <c r="C67" s="154">
@@ -57335,7 +57325,7 @@
     </row>
     <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="154" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B68" s="154"/>
       <c r="C68" s="154">
@@ -57355,17 +57345,17 @@
     </row>
     <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="187" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B70" s="299" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C70" s="58"/>
       <c r="D70" s="58"/>
     </row>
     <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="154" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B71" s="300">
         <v>0.1181</v>
@@ -57375,7 +57365,7 @@
     </row>
     <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="154" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B72" s="300">
         <v>0.54390000000000005</v>
@@ -57385,7 +57375,7 @@
     </row>
     <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="154" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B73" s="300">
         <v>0.14649999999999999</v>
@@ -57395,7 +57385,7 @@
     </row>
     <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="154" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B74" s="300">
         <v>9.1800000000000007E-2</v>
@@ -57405,7 +57395,7 @@
     </row>
     <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="154" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B75" s="300">
         <v>1.9300000000000001E-2</v>
@@ -57415,7 +57405,7 @@
     </row>
     <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="154" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B76" s="300">
         <v>1.1999999999999999E-3</v>
@@ -57425,7 +57415,7 @@
     </row>
     <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="154" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B77" s="300">
         <v>3.5999999999999997E-2</v>
@@ -57435,7 +57425,7 @@
     </row>
     <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="154" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B78" s="300">
         <v>8.9999999999999993E-3</v>
@@ -57445,7 +57435,7 @@
     </row>
     <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="154" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B79" s="298">
         <v>0</v>
@@ -57455,7 +57445,7 @@
     </row>
     <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="154" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B80" s="300">
         <v>3.4200000000000001E-2</v>
@@ -57543,8 +57533,8 @@
   </sheetPr>
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -57556,12 +57546,12 @@
   <sheetData>
     <row r="1" spans="1:13" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
@@ -57612,7 +57602,7 @@
     </row>
     <row r="5" spans="1:13" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -57659,10 +57649,10 @@
         <v>12</v>
       </c>
       <c r="K6" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L6" s="29" t="s">
         <v>218</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -57670,31 +57660,31 @@
         <v>13</v>
       </c>
       <c r="B7" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="E7" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="F7" s="89" t="s">
         <v>262</v>
       </c>
-      <c r="E7" s="89" t="s">
-        <v>262</v>
-      </c>
-      <c r="F7" s="89" t="s">
+      <c r="G7" s="89" t="s">
         <v>263</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="H7" s="89" t="s">
         <v>264</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="I7" s="89" t="s">
         <v>265</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="J7" s="89" t="s">
         <v>266</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>267</v>
       </c>
       <c r="K7" s="89" t="s">
         <v>100</v>
@@ -57708,31 +57698,31 @@
         <v>14</v>
       </c>
       <c r="B8" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="F8" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="89" t="s">
-        <v>268</v>
-      </c>
-      <c r="F8" s="89" t="s">
+      <c r="G8" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="89" t="s">
+      <c r="H8" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="H8" s="89" t="s">
+      <c r="I8" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="I8" s="89" t="s">
+      <c r="J8" s="89" t="s">
         <v>272</v>
-      </c>
-      <c r="J8" s="89" t="s">
-        <v>273</v>
       </c>
       <c r="K8" s="89" t="s">
         <v>100</v>
@@ -57746,31 +57736,31 @@
         <v>15</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C9" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E9" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F9" s="89" t="s">
+        <v>273</v>
+      </c>
+      <c r="G9" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="G9" s="89" t="s">
+      <c r="H9" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="H9" s="89" t="s">
-        <v>276</v>
-      </c>
       <c r="I9" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J9" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K9" s="89" t="s">
         <v>100</v>
@@ -57784,31 +57774,31 @@
         <v>16</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" s="89" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D10" s="89" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="89" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F10" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="G10" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="G10" s="89" t="s">
+      <c r="H10" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="H10" s="89" t="s">
-        <v>279</v>
-      </c>
       <c r="I10" s="89" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J10" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K10" s="89" t="s">
         <v>100</v>
@@ -57861,10 +57851,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L12" s="29" t="s">
         <v>218</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -57872,10 +57862,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D13" s="90">
         <v>0.05</v>
@@ -57910,10 +57900,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D14" s="90">
         <v>0.15</v>
@@ -57972,7 +57962,7 @@
         <v>0.05</v>
       </c>
       <c r="J15" s="90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K15" s="99">
         <v>1.25</v>
@@ -58010,7 +58000,7 @@
         <v>0.15</v>
       </c>
       <c r="J16" s="90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K16" s="99">
         <v>1.25</v>
@@ -58034,7 +58024,7 @@
     </row>
     <row r="20" spans="1:13" s="111" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
@@ -58051,13 +58041,13 @@
     </row>
     <row r="21" spans="1:13" s="111" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="105"/>
-      <c r="B21" s="474" t="s">
-        <v>441</v>
-      </c>
-      <c r="C21" s="474"/>
-      <c r="D21" s="474"/>
-      <c r="E21" s="474"/>
-      <c r="F21" s="474"/>
+      <c r="B21" s="473" t="s">
+        <v>440</v>
+      </c>
+      <c r="C21" s="473"/>
+      <c r="D21" s="473"/>
+      <c r="E21" s="473"/>
+      <c r="F21" s="473"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="46"/>
@@ -58068,7 +58058,7 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
@@ -58085,7 +58075,7 @@
     </row>
     <row r="23" spans="1:13" s="363" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B23" s="364">
         <v>0.02</v>
@@ -58097,7 +58087,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="48" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B24" s="92">
         <v>0.06</v>
@@ -58116,7 +58106,7 @@
     </row>
     <row r="25" spans="1:13" s="108" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B25" s="92">
         <v>0.03</v>
@@ -58135,7 +58125,7 @@
     </row>
     <row r="26" spans="1:13" s="111" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B26" s="92">
         <v>0.05</v>
@@ -58165,7 +58155,7 @@
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B29" s="52"/>
       <c r="C29" s="52"/>
@@ -58183,7 +58173,7 @@
     <row r="30" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="105"/>
       <c r="B30" s="106" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -58199,7 +58189,7 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="112" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B31" s="111">
         <v>0.01</v>
@@ -58218,7 +58208,7 @@
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
@@ -58235,13 +58225,13 @@
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="105"/>
-      <c r="B34" s="474" t="s">
-        <v>441</v>
-      </c>
-      <c r="C34" s="474"/>
-      <c r="D34" s="474"/>
-      <c r="E34" s="474"/>
-      <c r="F34" s="474"/>
+      <c r="B34" s="473" t="s">
+        <v>440</v>
+      </c>
+      <c r="C34" s="473"/>
+      <c r="D34" s="473"/>
+      <c r="E34" s="473"/>
+      <c r="F34" s="473"/>
       <c r="H34" s="46"/>
       <c r="I34" s="46"/>
       <c r="J34" s="46"/>
@@ -58251,25 +58241,25 @@
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="60" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B35" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="C35" s="44" t="s">
         <v>437</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="D35" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="E35" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="F35" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="E35" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>440</v>
-      </c>
       <c r="G35" s="176" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -60466,12 +60456,12 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
@@ -60513,7 +60503,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
@@ -60534,7 +60524,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="113" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B5" s="101"/>
       <c r="C5" s="101"/>
@@ -60563,106 +60553,106 @@
       <c r="G6" s="107"/>
       <c r="H6" s="107"/>
       <c r="I6" s="107"/>
-      <c r="J6" s="475" t="s">
-        <v>1060</v>
-      </c>
-      <c r="K6" s="475"/>
-      <c r="L6" s="475"/>
-      <c r="M6" s="475"/>
-      <c r="N6" s="475"/>
-      <c r="O6" s="475"/>
+      <c r="J6" s="474" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K6" s="474"/>
+      <c r="L6" s="474"/>
+      <c r="M6" s="474"/>
+      <c r="N6" s="474"/>
+      <c r="O6" s="474"/>
       <c r="P6" s="109"/>
       <c r="Q6" s="109"/>
     </row>
     <row r="7" spans="1:28" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="187" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="231" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="231" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="231" t="s">
+      <c r="D7" s="231" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="231" t="s">
+      <c r="E7" s="231" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="231" t="s">
+      <c r="F7" s="231" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="231" t="s">
+      <c r="G7" s="231" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="231" t="s">
+      <c r="H7" s="231" t="s">
         <v>182</v>
       </c>
-      <c r="H7" s="231" t="s">
+      <c r="I7" s="231" t="s">
+        <v>434</v>
+      </c>
+      <c r="J7" s="231" t="s">
+        <v>426</v>
+      </c>
+      <c r="K7" s="231" t="s">
+        <v>453</v>
+      </c>
+      <c r="L7" s="232" t="s">
+        <v>427</v>
+      </c>
+      <c r="M7" s="231" t="s">
+        <v>428</v>
+      </c>
+      <c r="N7" s="231" t="s">
+        <v>433</v>
+      </c>
+      <c r="O7" s="231" t="s">
+        <v>429</v>
+      </c>
+      <c r="P7" s="231" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q7" s="231" t="s">
+        <v>430</v>
+      </c>
+      <c r="R7" s="231" t="s">
+        <v>184</v>
+      </c>
+      <c r="S7" s="231" t="s">
+        <v>185</v>
+      </c>
+      <c r="T7" s="231" t="s">
+        <v>186</v>
+      </c>
+      <c r="U7" s="231" t="s">
+        <v>187</v>
+      </c>
+      <c r="V7" s="231" t="s">
+        <v>188</v>
+      </c>
+      <c r="W7" s="231" t="s">
+        <v>189</v>
+      </c>
+      <c r="X7" s="231" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y7" s="231" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z7" s="231" t="s">
         <v>183</v>
       </c>
-      <c r="I7" s="231" t="s">
-        <v>435</v>
-      </c>
-      <c r="J7" s="231" t="s">
-        <v>427</v>
-      </c>
-      <c r="K7" s="231" t="s">
-        <v>454</v>
-      </c>
-      <c r="L7" s="232" t="s">
-        <v>428</v>
-      </c>
-      <c r="M7" s="231" t="s">
-        <v>429</v>
-      </c>
-      <c r="N7" s="231" t="s">
-        <v>434</v>
-      </c>
-      <c r="O7" s="231" t="s">
-        <v>430</v>
-      </c>
-      <c r="P7" s="231" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q7" s="231" t="s">
-        <v>431</v>
-      </c>
-      <c r="R7" s="231" t="s">
-        <v>185</v>
-      </c>
-      <c r="S7" s="231" t="s">
-        <v>186</v>
-      </c>
-      <c r="T7" s="231" t="s">
-        <v>187</v>
-      </c>
-      <c r="U7" s="231" t="s">
-        <v>188</v>
-      </c>
-      <c r="V7" s="231" t="s">
-        <v>189</v>
-      </c>
-      <c r="W7" s="231" t="s">
-        <v>190</v>
-      </c>
-      <c r="X7" s="231" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y7" s="231" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z7" s="231" t="s">
-        <v>184</v>
-      </c>
       <c r="AA7" s="59" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AB7" s="365" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="154" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B8" s="233">
         <v>0</v>
@@ -60747,7 +60737,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="154" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B9" s="233">
         <v>0</v>
@@ -60832,7 +60822,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="154" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B10" s="233">
         <v>0</v>
@@ -60917,7 +60907,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="154" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B11" s="233">
         <v>0</v>
@@ -61002,7 +60992,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="154" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B12" s="233">
         <v>0</v>
@@ -61087,7 +61077,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="154" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B13" s="233">
         <v>0</v>
@@ -61172,7 +61162,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="154" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" s="238">
         <v>295</v>
@@ -61257,7 +61247,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="154" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B15" s="233">
         <v>0</v>
@@ -61342,7 +61332,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="154" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="238">
         <v>295</v>
@@ -61427,7 +61417,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="154" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B17" s="233">
         <v>0</v>
@@ -61512,7 +61502,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="154" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B18" s="233">
         <v>0</v>
@@ -61597,7 +61587,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="154" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B19" s="233">
         <v>0</v>
@@ -61682,7 +61672,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="154" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B20" s="233">
         <v>0</v>
@@ -61767,7 +61757,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="154" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B21" s="233">
         <v>0</v>
@@ -61852,7 +61842,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="154" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B22" s="233">
         <v>0</v>
@@ -61937,7 +61927,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="154" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B23" s="233">
         <v>0</v>
@@ -62022,7 +62012,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="154" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B24" s="233">
         <v>0</v>
@@ -62107,7 +62097,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="154" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B25" s="233">
         <v>0</v>
@@ -62198,7 +62188,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="154" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" s="238">
         <v>295</v>
@@ -62283,7 +62273,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="154" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B27" s="233">
         <v>0</v>
@@ -62368,7 +62358,7 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="154" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B28" s="233">
         <v>0</v>
@@ -62453,7 +62443,7 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="154" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B29" s="233">
         <v>0</v>
@@ -62538,7 +62528,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="154" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B30" s="233">
         <v>0</v>
@@ -62620,7 +62610,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="154" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B31" s="233">
         <v>0</v>
@@ -62702,7 +62692,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="154" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B32" s="233">
         <v>0</v>
@@ -62784,7 +62774,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="154" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B33" s="233">
         <v>0</v>
@@ -62866,7 +62856,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="154" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B34" s="233">
         <v>0</v>
@@ -62948,7 +62938,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="154" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B35" s="233">
         <v>0</v>
@@ -63030,7 +63020,7 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="154" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B36" s="233">
         <v>0</v>
@@ -63112,7 +63102,7 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="154" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B37" s="233">
         <v>0</v>
@@ -63194,7 +63184,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="154" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B38" s="233">
         <v>0</v>
@@ -63276,7 +63266,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="154" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B39" s="233">
         <v>0</v>
@@ -63358,7 +63348,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="154" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B40" s="233">
         <v>0</v>
@@ -63440,7 +63430,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="154" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B41" s="233">
         <v>0</v>
@@ -63522,7 +63512,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="154" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B42" s="233">
         <v>0</v>
@@ -63604,7 +63594,7 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="154" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B43" s="233">
         <v>0</v>
@@ -63686,7 +63676,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="154" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B44" s="233">
         <v>0</v>
@@ -63768,7 +63758,7 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="154" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B45" s="233">
         <v>0</v>
@@ -63850,7 +63840,7 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="154" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B46" s="233">
         <v>0</v>
@@ -63932,7 +63922,7 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="154" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B47" s="233">
         <v>0</v>
@@ -64014,7 +64004,7 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="154" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B48" s="233">
         <v>0</v>
@@ -64096,7 +64086,7 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="154" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B49" s="233">
         <v>0</v>
@@ -64178,7 +64168,7 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="154" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B50" s="246">
         <v>0</v>
@@ -64264,7 +64254,7 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="154" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B51" s="233">
         <v>0</v>
@@ -64347,7 +64337,7 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="154" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B52" s="233">
         <v>0</v>
@@ -64433,7 +64423,7 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="154" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B53" s="233">
         <v>0</v>
@@ -64519,7 +64509,7 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="154" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B54" s="233">
         <v>0</v>
@@ -64605,7 +64595,7 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="154" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B55" s="233">
         <v>0</v>
@@ -64691,7 +64681,7 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="154" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B56" s="233">
         <v>0</v>
@@ -64777,7 +64767,7 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="154" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B57" s="233">
         <v>0</v>
@@ -64863,7 +64853,7 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B58" s="238">
         <v>295</v>
@@ -64949,7 +64939,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="154" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B59" s="233">
         <v>0</v>
@@ -65035,7 +65025,7 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="154" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B60" s="238">
         <v>255</v>
@@ -65121,7 +65111,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="154" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B61" s="233">
         <v>0</v>
@@ -65207,7 +65197,7 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="154" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B62" s="233">
         <v>0</v>
@@ -65293,7 +65283,7 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="154" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B63" s="233">
         <v>0</v>
@@ -65408,34 +65398,34 @@
     </row>
     <row r="65" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="187" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B65" s="218" t="s">
+        <v>443</v>
+      </c>
+      <c r="C65" s="218" t="s">
         <v>444</v>
       </c>
-      <c r="C65" s="218" t="s">
+      <c r="D65" s="218" t="s">
         <v>445</v>
       </c>
-      <c r="D65" s="218" t="s">
+      <c r="E65" s="218" t="s">
         <v>446</v>
       </c>
-      <c r="E65" s="218" t="s">
+      <c r="F65" s="361" t="s">
+        <v>947</v>
+      </c>
+      <c r="G65" s="218" t="s">
         <v>447</v>
       </c>
-      <c r="F65" s="361" t="s">
-        <v>948</v>
-      </c>
-      <c r="G65" s="218" t="s">
-        <v>448</v>
-      </c>
       <c r="H65" s="249" t="s">
+        <v>662</v>
+      </c>
+      <c r="I65" s="218" t="s">
         <v>663</v>
       </c>
-      <c r="I65" s="218" t="s">
-        <v>664</v>
-      </c>
       <c r="J65" s="218" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K65" s="59"/>
       <c r="L65" s="59"/>
@@ -65457,13 +65447,13 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="154" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B66" s="250">
         <v>1</v>
       </c>
       <c r="C66" s="362" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D66" s="218">
         <f>(((1/3)*1.686)+0.4)*(5.823+1.22+0.61)</f>
@@ -65487,7 +65477,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="251" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K66" s="59"/>
       <c r="L66" s="59"/>
@@ -65509,7 +65499,7 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="154" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B67" s="250">
         <v>1</v>
@@ -65534,7 +65524,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="251" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K67" s="59"/>
       <c r="L67" s="59"/>
@@ -65556,7 +65546,7 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="154" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B68" s="250">
         <v>1</v>
@@ -65581,7 +65571,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="251" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K68" s="59"/>
       <c r="L68" s="59"/>
@@ -65603,7 +65593,7 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="154" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B69" s="250">
         <v>1</v>
@@ -65628,7 +65618,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="251" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K69" s="59"/>
       <c r="L69" s="59"/>
@@ -65650,7 +65640,7 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="154" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B70" s="250">
         <v>1</v>
@@ -65675,7 +65665,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="251" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K70" s="59"/>
       <c r="L70" s="59"/>
@@ -65697,7 +65687,7 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="154" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B71" s="250">
         <v>1</v>
@@ -65722,7 +65712,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="251" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K71" s="59"/>
       <c r="L71" s="59"/>
@@ -65744,7 +65734,7 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="154" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B72" s="250">
         <v>1</v>
@@ -65769,7 +65759,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="251" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K72" s="59"/>
       <c r="L72" s="59"/>
@@ -65791,7 +65781,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="154" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B73" s="250">
         <v>1</v>
@@ -65816,7 +65806,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="251" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K73" s="59"/>
       <c r="L73" s="59"/>
@@ -65838,7 +65828,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="154" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B74" s="250">
         <v>1</v>
@@ -65863,7 +65853,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="251" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K74" s="59"/>
       <c r="L74" s="59"/>
@@ -65885,7 +65875,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="154" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B75" s="250">
         <v>1</v>
@@ -65932,7 +65922,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="154" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B76" s="250">
         <v>1</v>
@@ -66008,87 +65998,87 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="187" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B78" s="218" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C78" s="218" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D78" s="218" t="s">
+        <v>363</v>
+      </c>
+      <c r="E78" s="218" t="s">
+        <v>317</v>
+      </c>
+      <c r="F78" s="244" t="s">
+        <v>449</v>
+      </c>
+      <c r="G78" s="218" t="s">
+        <v>365</v>
+      </c>
+      <c r="H78" s="218" t="s">
+        <v>320</v>
+      </c>
+      <c r="I78" s="157" t="s">
         <v>364</v>
       </c>
-      <c r="E78" s="218" t="s">
-        <v>318</v>
-      </c>
-      <c r="F78" s="244" t="s">
-        <v>450</v>
-      </c>
-      <c r="G78" s="218" t="s">
-        <v>366</v>
-      </c>
-      <c r="H78" s="218" t="s">
+      <c r="J78" s="218" t="s">
         <v>321</v>
       </c>
-      <c r="I78" s="157" t="s">
-        <v>365</v>
-      </c>
-      <c r="J78" s="218" t="s">
-        <v>322</v>
-      </c>
       <c r="K78" s="157" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L78" s="218" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M78" s="218" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N78" s="218" t="s">
+        <v>327</v>
+      </c>
+      <c r="O78" s="218" t="s">
         <v>328</v>
       </c>
-      <c r="O78" s="218" t="s">
-        <v>329</v>
-      </c>
       <c r="P78" s="218" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q78" s="157" t="s">
+        <v>342</v>
+      </c>
+      <c r="R78" s="157" t="s">
+        <v>343</v>
+      </c>
+      <c r="S78" s="157" t="s">
+        <v>348</v>
+      </c>
+      <c r="T78" s="218" t="s">
         <v>331</v>
       </c>
-      <c r="Q78" s="157" t="s">
-        <v>343</v>
-      </c>
-      <c r="R78" s="157" t="s">
-        <v>344</v>
-      </c>
-      <c r="S78" s="157" t="s">
-        <v>349</v>
-      </c>
-      <c r="T78" s="218" t="s">
+      <c r="U78" s="218" t="s">
         <v>332</v>
       </c>
-      <c r="U78" s="218" t="s">
-        <v>333</v>
-      </c>
       <c r="V78" s="218" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="W78" s="218" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X78" s="252" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="154" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B79" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C79" s="218" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D79" s="218">
         <v>200</v>
@@ -66148,21 +66138,21 @@
         <v>0</v>
       </c>
       <c r="W79" s="251" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="X79" s="252" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="154" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B80" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C80" s="218" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D80" s="218">
         <v>852</v>
@@ -66216,27 +66206,27 @@
         <v>0</v>
       </c>
       <c r="U80" s="218" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="V80" s="253">
         <v>0</v>
       </c>
       <c r="W80" s="251" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="X80" s="252" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="154" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B81" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C81" s="218" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D81" s="218">
         <v>1593</v>
@@ -66290,39 +66280,39 @@
         <v>0</v>
       </c>
       <c r="U81" s="218" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="V81" s="253">
         <v>0</v>
       </c>
       <c r="W81" s="251" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="X81" s="252" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="120" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B82" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C82" s="218" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D82" s="218">
         <v>320</v>
       </c>
       <c r="E82" s="218" t="s">
+        <v>318</v>
+      </c>
+      <c r="F82" s="253">
+        <v>0</v>
+      </c>
+      <c r="G82" s="218" t="s">
         <v>319</v>
-      </c>
-      <c r="F82" s="253">
-        <v>0</v>
-      </c>
-      <c r="G82" s="218" t="s">
-        <v>320</v>
       </c>
       <c r="H82" s="218">
         <v>2.4</v>
@@ -66331,22 +66321,22 @@
         <v>0</v>
       </c>
       <c r="J82" s="218" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K82" s="253">
         <v>0</v>
       </c>
       <c r="L82" s="218" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M82" s="218" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N82" s="218" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O82" s="218" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P82" s="218">
         <v>50000</v>
@@ -66361,30 +66351,30 @@
         <v>0</v>
       </c>
       <c r="T82" s="218" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U82" s="218" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V82" s="218" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W82" s="254" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X82" s="252" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="154" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B83" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C83" s="218" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D83" s="218">
         <v>81</v>
@@ -66444,21 +66434,21 @@
         <v>0</v>
       </c>
       <c r="W83" s="251" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="X83" s="252" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="154" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B84" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C84" s="218" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D84" s="218">
         <v>91</v>
@@ -66518,15 +66508,15 @@
         <v>0</v>
       </c>
       <c r="W84" s="251" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="X84" s="252" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="154" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B85" s="218"/>
       <c r="C85" s="218"/>
@@ -66586,34 +66576,34 @@
         <v>0</v>
       </c>
       <c r="W85" s="251" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="X85" s="252"/>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="255" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B86" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C86" s="218" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D86" s="218">
         <v>250</v>
       </c>
       <c r="E86" s="218" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F86" s="157">
         <v>120</v>
       </c>
       <c r="G86" s="218" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H86" s="218" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I86" s="156">
         <v>2.5</v>
@@ -66622,10 +66612,10 @@
         <v>0</v>
       </c>
       <c r="K86" s="157" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L86" s="218" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M86" s="253">
         <v>0</v>
@@ -66640,54 +66630,54 @@
         <v>60000</v>
       </c>
       <c r="Q86" s="157" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R86" s="218">
         <v>3.5</v>
       </c>
       <c r="S86" s="218" t="s">
+        <v>349</v>
+      </c>
+      <c r="T86" s="250">
+        <v>0</v>
+      </c>
+      <c r="U86" s="218" t="s">
         <v>350</v>
       </c>
-      <c r="T86" s="250">
-        <v>0</v>
-      </c>
-      <c r="U86" s="218" t="s">
-        <v>351</v>
-      </c>
       <c r="V86" s="253">
         <v>0</v>
       </c>
       <c r="W86" s="251" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="X86" s="252" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="255" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B87" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C87" s="218" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D87" s="218">
         <v>220</v>
       </c>
       <c r="E87" s="218" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F87" s="157">
         <v>120</v>
       </c>
       <c r="G87" s="218" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H87" s="218" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I87" s="156">
         <v>2.2000000000000002</v>
@@ -66696,10 +66686,10 @@
         <v>0</v>
       </c>
       <c r="K87" s="157" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L87" s="218" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M87" s="253">
         <v>0</v>
@@ -66714,54 +66704,54 @@
         <v>60000</v>
       </c>
       <c r="Q87" s="157" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R87" s="218">
         <v>4.5</v>
       </c>
       <c r="S87" s="218" t="s">
+        <v>349</v>
+      </c>
+      <c r="T87" s="250">
+        <v>0</v>
+      </c>
+      <c r="U87" s="218" t="s">
         <v>350</v>
       </c>
-      <c r="T87" s="250">
-        <v>0</v>
-      </c>
-      <c r="U87" s="218" t="s">
-        <v>351</v>
-      </c>
       <c r="V87" s="253">
         <v>0</v>
       </c>
       <c r="W87" s="251" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="X87" s="252" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="255" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B88" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C88" s="218" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D88" s="218">
         <v>160</v>
       </c>
       <c r="E88" s="218" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F88" s="157">
         <v>120</v>
       </c>
       <c r="G88" s="218" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H88" s="218" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I88" s="156">
         <v>1.6</v>
@@ -66770,10 +66760,10 @@
         <v>0</v>
       </c>
       <c r="K88" s="157" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L88" s="218" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M88" s="253">
         <v>0</v>
@@ -66788,54 +66778,54 @@
         <v>60000</v>
       </c>
       <c r="Q88" s="157" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R88" s="218">
         <v>5.5</v>
       </c>
       <c r="S88" s="218" t="s">
+        <v>349</v>
+      </c>
+      <c r="T88" s="250">
+        <v>0</v>
+      </c>
+      <c r="U88" s="218" t="s">
         <v>350</v>
       </c>
-      <c r="T88" s="250">
-        <v>0</v>
-      </c>
-      <c r="U88" s="218" t="s">
-        <v>351</v>
-      </c>
       <c r="V88" s="253">
         <v>0</v>
       </c>
       <c r="W88" s="251" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="X88" s="252" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="255" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B89" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C89" s="218" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D89" s="218">
         <v>375</v>
       </c>
       <c r="E89" s="218" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F89" s="157">
         <v>160</v>
       </c>
       <c r="G89" s="218" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H89" s="218" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I89" s="156">
         <v>2.5</v>
@@ -66844,10 +66834,10 @@
         <v>0</v>
       </c>
       <c r="K89" s="157" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L89" s="218" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M89" s="253">
         <v>0</v>
@@ -66862,54 +66852,54 @@
         <v>60000</v>
       </c>
       <c r="Q89" s="218" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R89" s="218">
         <v>5.3</v>
       </c>
       <c r="S89" s="218" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T89" s="250">
         <v>0</v>
       </c>
       <c r="U89" s="218" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V89" s="253">
         <v>0</v>
       </c>
       <c r="W89" s="251" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="X89" s="252" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="255" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B90" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C90" s="218" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D90" s="218">
         <v>330</v>
       </c>
       <c r="E90" s="218" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F90" s="157">
         <v>160</v>
       </c>
       <c r="G90" s="218" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H90" s="218" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I90" s="156">
         <v>2.2000000000000002</v>
@@ -66918,10 +66908,10 @@
         <v>0</v>
       </c>
       <c r="K90" s="157" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L90" s="218" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M90" s="253">
         <v>0</v>
@@ -66936,54 +66926,54 @@
         <v>60000</v>
       </c>
       <c r="Q90" s="218" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R90" s="218">
         <v>6.3</v>
       </c>
       <c r="S90" s="218" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T90" s="250">
         <v>0</v>
       </c>
       <c r="U90" s="218" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V90" s="253">
         <v>0</v>
       </c>
       <c r="W90" s="251" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="X90" s="252" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="255" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B91" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C91" s="218" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D91" s="218">
         <v>240</v>
       </c>
       <c r="E91" s="218" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F91" s="157">
         <v>160</v>
       </c>
       <c r="G91" s="218" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H91" s="218" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I91" s="156">
         <v>1.6</v>
@@ -66992,10 +66982,10 @@
         <v>0</v>
       </c>
       <c r="K91" s="157" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L91" s="218" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M91" s="253">
         <v>0</v>
@@ -67010,39 +67000,39 @@
         <v>60000</v>
       </c>
       <c r="Q91" s="218" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R91" s="218">
         <v>7.3</v>
       </c>
       <c r="S91" s="218" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T91" s="250">
         <v>0</v>
       </c>
       <c r="U91" s="218" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V91" s="253">
         <v>0</v>
       </c>
       <c r="W91" s="251" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="X91" s="252" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="255" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B92" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C92" s="218" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D92" s="218">
         <v>1712</v>
@@ -67102,21 +67092,21 @@
         <v>0</v>
       </c>
       <c r="W92" s="251" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X92" s="252" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="255" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B93" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C93" s="218" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D93" s="218">
         <v>491</v>
@@ -67170,27 +67160,27 @@
         <v>0</v>
       </c>
       <c r="U93" s="218" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="V93" s="253">
         <v>0</v>
       </c>
       <c r="W93" s="251" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="X93" s="252" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="255" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B94" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C94" s="218" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D94" s="218">
         <v>533</v>
@@ -67244,27 +67234,27 @@
         <v>0</v>
       </c>
       <c r="U94" s="218" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="V94" s="253">
         <v>0</v>
       </c>
       <c r="W94" s="251" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="X94" s="252" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="255" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B95" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C95" s="218" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D95" s="218">
         <v>210</v>
@@ -67324,21 +67314,21 @@
         <v>0</v>
       </c>
       <c r="W95" s="251" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="X95" s="252" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="255" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B96" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C96" s="218" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D96" s="218">
         <v>210</v>
@@ -67398,21 +67388,21 @@
         <v>0</v>
       </c>
       <c r="W96" s="251" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="X96" s="252" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="255" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B97" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C97" s="218" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D97" s="218">
         <v>210</v>
@@ -67472,21 +67462,21 @@
         <v>0</v>
       </c>
       <c r="W97" s="251" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="X97" s="252" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="255" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B98" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C98" s="218" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D98" s="218">
         <v>210</v>
@@ -67546,10 +67536,10 @@
         <v>0</v>
       </c>
       <c r="W98" s="251" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="X98" s="252" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.2">
@@ -67558,7 +67548,7 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="214" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B100" s="218"/>
       <c r="C100" s="218"/>
@@ -67590,28 +67580,28 @@
     <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="156"/>
       <c r="B101" s="252" t="s">
+        <v>581</v>
+      </c>
+      <c r="C101" s="218" t="s">
         <v>582</v>
       </c>
-      <c r="C101" s="218" t="s">
+      <c r="D101" s="218" t="s">
         <v>583</v>
       </c>
-      <c r="D101" s="218" t="s">
+      <c r="E101" s="218" t="s">
         <v>584</v>
       </c>
-      <c r="E101" s="218" t="s">
+      <c r="F101" s="218" t="s">
+        <v>332</v>
+      </c>
+      <c r="G101" s="218" t="s">
         <v>585</v>
       </c>
-      <c r="F101" s="218" t="s">
-        <v>333</v>
-      </c>
-      <c r="G101" s="218" t="s">
+      <c r="H101" s="218" t="s">
         <v>586</v>
       </c>
-      <c r="H101" s="218" t="s">
+      <c r="I101" s="218" t="s">
         <v>587</v>
-      </c>
-      <c r="I101" s="218" t="s">
-        <v>588</v>
       </c>
       <c r="J101" s="59"/>
       <c r="K101" s="59"/>
@@ -67634,31 +67624,31 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="252" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B102" s="252" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C102" s="218" t="s">
+        <v>589</v>
+      </c>
+      <c r="D102" s="256" t="s">
         <v>590</v>
       </c>
-      <c r="D102" s="256" t="s">
+      <c r="E102" s="256" t="s">
+        <v>590</v>
+      </c>
+      <c r="F102" s="256" t="s">
         <v>591</v>
       </c>
-      <c r="E102" s="256" t="s">
-        <v>591</v>
-      </c>
-      <c r="F102" s="256" t="s">
+      <c r="G102" s="256" t="s">
         <v>592</v>
       </c>
-      <c r="G102" s="256" t="s">
+      <c r="H102" s="256" t="s">
         <v>593</v>
       </c>
-      <c r="H102" s="256" t="s">
+      <c r="I102" s="218" t="s">
         <v>594</v>
-      </c>
-      <c r="I102" s="218" t="s">
-        <v>595</v>
       </c>
       <c r="J102" s="59"/>
       <c r="K102" s="59"/>
@@ -67684,28 +67674,28 @@
         <v>44197</v>
       </c>
       <c r="B103" s="252" t="s">
+        <v>588</v>
+      </c>
+      <c r="C103" s="218" t="s">
         <v>589</v>
       </c>
-      <c r="C103" s="218" t="s">
+      <c r="D103" s="256" t="s">
         <v>590</v>
       </c>
-      <c r="D103" s="256" t="s">
+      <c r="E103" s="256" t="s">
+        <v>590</v>
+      </c>
+      <c r="F103" s="256" t="s">
         <v>591</v>
       </c>
-      <c r="E103" s="256" t="s">
-        <v>591</v>
-      </c>
-      <c r="F103" s="256" t="s">
-        <v>592</v>
-      </c>
       <c r="G103" s="256" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H103" s="256" t="s">
+        <v>593</v>
+      </c>
+      <c r="I103" s="218" t="s">
         <v>594</v>
-      </c>
-      <c r="I103" s="218" t="s">
-        <v>595</v>
       </c>
       <c r="J103" s="59"/>
       <c r="K103" s="59"/>
@@ -67757,7 +67747,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" s="214" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B111" s="215"/>
       <c r="C111" s="215"/>
@@ -67777,7 +67767,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" s="216" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B112" s="217">
         <v>1</v>
@@ -67827,7 +67817,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="218" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B113" s="338">
         <v>0.12540000000000001</v>
@@ -67877,7 +67867,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="216" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B114" s="339">
         <v>0.1777</v>
@@ -67927,7 +67917,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="218" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B115" s="338">
         <v>0.2404</v>
@@ -67980,27 +67970,27 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="187" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B117" s="154" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C117" s="154" t="s">
         <v>74</v>
       </c>
       <c r="D117" s="154" t="s">
+        <v>493</v>
+      </c>
+      <c r="E117" s="154" t="s">
         <v>494</v>
       </c>
-      <c r="E117" s="154" t="s">
-        <v>495</v>
-      </c>
       <c r="F117" s="154" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="154" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B118" s="154">
         <v>1</v>
@@ -68020,7 +68010,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="154" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B119" s="154">
         <v>0.9</v>
@@ -68040,7 +68030,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="154" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B120" s="154">
         <v>0.6</v>
@@ -68060,7 +68050,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="154" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B121" s="154" t="s">
         <v>100</v>
@@ -68080,7 +68070,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="154" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B122" s="154" t="s">
         <v>100</v>
@@ -68103,7 +68093,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="340" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B124" s="341"/>
       <c r="C124" s="341"/>
@@ -68126,7 +68116,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" s="341" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B125" s="341"/>
       <c r="C125" s="341"/>
@@ -68139,7 +68129,7 @@
       <c r="J125" s="341"/>
       <c r="K125" s="341"/>
       <c r="L125" s="342" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M125" s="343"/>
       <c r="N125" s="343"/>
@@ -68151,7 +68141,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="341" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B126" s="341"/>
       <c r="C126" s="341"/>
@@ -68174,7 +68164,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" s="341" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B127" s="341"/>
       <c r="C127" s="341"/>
@@ -68220,101 +68210,101 @@
       <c r="A129" s="341"/>
       <c r="B129" s="341"/>
       <c r="C129" s="360" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D129" s="344" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E129" s="344" t="s">
+        <v>902</v>
+      </c>
+      <c r="F129" s="344" t="s">
+        <v>890</v>
+      </c>
+      <c r="G129" s="344" t="s">
+        <v>886</v>
+      </c>
+      <c r="H129" s="344" t="s">
         <v>903</v>
       </c>
-      <c r="F129" s="344" t="s">
-        <v>891</v>
-      </c>
-      <c r="G129" s="344" t="s">
-        <v>887</v>
-      </c>
-      <c r="H129" s="344" t="s">
+      <c r="I129" s="344" t="s">
         <v>904</v>
       </c>
-      <c r="I129" s="344" t="s">
+      <c r="J129" s="344" t="s">
+        <v>885</v>
+      </c>
+      <c r="K129" s="344" t="s">
         <v>905</v>
       </c>
-      <c r="J129" s="344" t="s">
-        <v>886</v>
-      </c>
-      <c r="K129" s="344" t="s">
+      <c r="L129" s="344" t="s">
+        <v>883</v>
+      </c>
+      <c r="M129" s="344" t="s">
         <v>906</v>
       </c>
-      <c r="L129" s="344" t="s">
+      <c r="N129" s="344" t="s">
+        <v>907</v>
+      </c>
+      <c r="O129" s="344" t="s">
         <v>884</v>
       </c>
-      <c r="M129" s="344" t="s">
-        <v>907</v>
-      </c>
-      <c r="N129" s="344" t="s">
+      <c r="P129" s="344" t="s">
         <v>908</v>
       </c>
-      <c r="O129" s="344" t="s">
-        <v>885</v>
-      </c>
-      <c r="P129" s="344" t="s">
+      <c r="Q129" s="344" t="s">
         <v>909</v>
       </c>
-      <c r="Q129" s="344" t="s">
+      <c r="R129" s="344" t="s">
         <v>910</v>
       </c>
-      <c r="R129" s="344" t="s">
+      <c r="S129" s="344" t="s">
         <v>911</v>
       </c>
-      <c r="S129" s="344" t="s">
+      <c r="T129" s="344"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A130" s="475" t="s">
         <v>912</v>
       </c>
-      <c r="T129" s="344"/>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A130" s="476" t="s">
+      <c r="B130" s="356" t="s">
         <v>913</v>
-      </c>
-      <c r="B130" s="356" t="s">
-        <v>914</v>
       </c>
       <c r="C130" s="237"/>
       <c r="D130" s="345" t="s">
+        <v>888</v>
+      </c>
+      <c r="E130" s="345" t="s">
+        <v>914</v>
+      </c>
+      <c r="F130" s="345" t="s">
         <v>889</v>
       </c>
-      <c r="E130" s="345" t="s">
+      <c r="G130" s="345" t="s">
+        <v>891</v>
+      </c>
+      <c r="H130" s="345" t="s">
         <v>915</v>
       </c>
-      <c r="F130" s="345" t="s">
-        <v>890</v>
-      </c>
-      <c r="G130" s="345" t="s">
+      <c r="I130" s="345" t="s">
+        <v>916</v>
+      </c>
+      <c r="J130" s="346" t="s">
+        <v>917</v>
+      </c>
+      <c r="K130" s="345" t="s">
+        <v>918</v>
+      </c>
+      <c r="L130" s="345" t="s">
+        <v>894</v>
+      </c>
+      <c r="M130" s="346" t="s">
+        <v>893</v>
+      </c>
+      <c r="N130" s="345" t="s">
         <v>892</v>
       </c>
-      <c r="H130" s="345" t="s">
-        <v>916</v>
-      </c>
-      <c r="I130" s="345" t="s">
-        <v>917</v>
-      </c>
-      <c r="J130" s="346" t="s">
-        <v>918</v>
-      </c>
-      <c r="K130" s="345" t="s">
-        <v>919</v>
-      </c>
-      <c r="L130" s="345" t="s">
+      <c r="O130" s="346" t="s">
         <v>895</v>
-      </c>
-      <c r="M130" s="346" t="s">
-        <v>894</v>
-      </c>
-      <c r="N130" s="345" t="s">
-        <v>893</v>
-      </c>
-      <c r="O130" s="346" t="s">
-        <v>896</v>
       </c>
       <c r="P130" s="345" t="s">
         <v>100</v>
@@ -68326,16 +68316,16 @@
         <v>100</v>
       </c>
       <c r="S130" s="346" t="s">
+        <v>919</v>
+      </c>
+      <c r="T130" s="351" t="s">
         <v>920</v>
       </c>
-      <c r="T130" s="351" t="s">
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A131" s="475"/>
+      <c r="B131" s="356" t="s">
         <v>921</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A131" s="476"/>
-      <c r="B131" s="356" t="s">
-        <v>922</v>
       </c>
       <c r="C131" s="237"/>
       <c r="D131" s="345">
@@ -68355,7 +68345,7 @@
         <v>20</v>
       </c>
       <c r="J131" s="346" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K131" s="345">
         <v>5</v>
@@ -68387,44 +68377,44 @@
       <c r="T131" s="351"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A132" s="476"/>
+      <c r="A132" s="475"/>
       <c r="B132" s="357" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C132" s="156"/>
       <c r="D132" s="344" t="s">
+        <v>923</v>
+      </c>
+      <c r="E132" s="344" t="s">
         <v>924</v>
-      </c>
-      <c r="E132" s="344" t="s">
-        <v>925</v>
       </c>
       <c r="F132" s="344"/>
       <c r="G132" s="344" t="s">
+        <v>925</v>
+      </c>
+      <c r="H132" s="344" t="s">
         <v>926</v>
-      </c>
-      <c r="H132" s="344" t="s">
-        <v>927</v>
       </c>
       <c r="I132" s="344" t="s">
         <v>100</v>
       </c>
       <c r="J132" s="347" t="s">
+        <v>927</v>
+      </c>
+      <c r="K132" s="344" t="s">
         <v>928</v>
       </c>
-      <c r="K132" s="344" t="s">
+      <c r="L132" s="344" t="s">
         <v>929</v>
       </c>
-      <c r="L132" s="344" t="s">
+      <c r="M132" s="347" t="s">
+        <v>927</v>
+      </c>
+      <c r="N132" s="344" t="s">
         <v>930</v>
       </c>
-      <c r="M132" s="347" t="s">
-        <v>928</v>
-      </c>
-      <c r="N132" s="344" t="s">
+      <c r="O132" s="344" t="s">
         <v>931</v>
-      </c>
-      <c r="O132" s="344" t="s">
-        <v>932</v>
       </c>
       <c r="P132" s="344" t="s">
         <v>100</v>
@@ -68436,16 +68426,16 @@
         <v>100</v>
       </c>
       <c r="S132" s="344" t="s">
+        <v>932</v>
+      </c>
+      <c r="T132" s="350" t="s">
         <v>933</v>
       </c>
-      <c r="T132" s="350" t="s">
-        <v>934</v>
-      </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A133" s="476"/>
+      <c r="A133" s="475"/>
       <c r="B133" s="358" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C133" s="156"/>
       <c r="D133" s="344">
@@ -68465,7 +68455,7 @@
         <v>100</v>
       </c>
       <c r="J133" s="347" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K133" s="344">
         <v>30</v>
@@ -68497,9 +68487,9 @@
       <c r="T133" s="350"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A134" s="476"/>
+      <c r="A134" s="475"/>
       <c r="B134" s="356" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C134" s="237"/>
       <c r="D134" s="348"/>
@@ -68516,20 +68506,20 @@
       <c r="O134" s="348"/>
       <c r="P134" s="348"/>
       <c r="Q134" s="345" t="s">
+        <v>935</v>
+      </c>
+      <c r="R134" s="345" t="s">
         <v>936</v>
-      </c>
-      <c r="R134" s="345" t="s">
-        <v>937</v>
       </c>
       <c r="S134" s="348"/>
       <c r="T134" s="355" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A135" s="476"/>
+      <c r="A135" s="475"/>
       <c r="B135" s="356" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C135" s="237"/>
       <c r="D135" s="348"/>
@@ -68555,7 +68545,7 @@
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="341"/>
       <c r="B136" s="359" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C136" s="156"/>
       <c r="D136" s="344" t="s">
@@ -68607,13 +68597,13 @@
         <v>100</v>
       </c>
       <c r="T136" s="350" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="341"/>
       <c r="B137" s="356" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C137" s="237">
         <v>233</v>
@@ -68678,7 +68668,7 @@
         <v>12.5</v>
       </c>
       <c r="T137" s="351" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.2">
@@ -68704,7 +68694,7 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="354" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B139" s="354" t="str">
         <f>Overview!B54</f>
@@ -68730,7 +68720,7 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="341" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B140" s="341">
         <f>HLOOKUP(Overview!B54,C129:S137, 9, FALSE)</f>
@@ -68777,45 +68767,45 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="38" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="44" t="s">
+        <v>972</v>
+      </c>
+      <c r="B143" s="44" t="s">
         <v>973</v>
       </c>
-      <c r="B143" s="44" t="s">
+      <c r="C143" s="44" t="s">
         <v>974</v>
       </c>
-      <c r="C143" s="44" t="s">
+      <c r="D143" s="44" t="s">
         <v>975</v>
       </c>
-      <c r="D143" s="44" t="s">
+      <c r="E143" s="44" t="s">
         <v>976</v>
       </c>
-      <c r="E143" s="44" t="s">
+      <c r="F143" s="44" t="s">
         <v>977</v>
       </c>
-      <c r="F143" s="44" t="s">
+      <c r="G143" s="44" t="s">
         <v>978</v>
       </c>
-      <c r="G143" s="44" t="s">
+      <c r="H143" s="44" t="s">
         <v>979</v>
       </c>
-      <c r="H143" s="44" t="s">
+      <c r="I143" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="I143" s="44" t="s">
+      <c r="J143" s="44" t="s">
         <v>981</v>
       </c>
-      <c r="J143" s="44" t="s">
+      <c r="K143" s="44" t="s">
         <v>982</v>
       </c>
-      <c r="K143" s="44" t="s">
+      <c r="L143" s="44" t="s">
         <v>983</v>
-      </c>
-      <c r="L143" s="44" t="s">
-        <v>984</v>
       </c>
       <c r="M143" s="44" t="s">
         <v>19</v>
@@ -68823,16 +68813,16 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="38" t="s">
+        <v>984</v>
+      </c>
+      <c r="B144" s="38" t="s">
         <v>985</v>
       </c>
-      <c r="B144" s="38" t="s">
+      <c r="C144" s="38" t="s">
+        <v>635</v>
+      </c>
+      <c r="D144" s="38" t="s">
         <v>986</v>
-      </c>
-      <c r="C144" s="38" t="s">
-        <v>636</v>
-      </c>
-      <c r="D144" s="38" t="s">
-        <v>987</v>
       </c>
       <c r="E144" s="38">
         <v>1</v>
@@ -68856,16 +68846,16 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="B145" s="38" t="s">
         <v>988</v>
       </c>
-      <c r="B145" s="38" t="s">
+      <c r="C145" s="38" t="s">
         <v>989</v>
       </c>
-      <c r="C145" s="38" t="s">
+      <c r="D145" s="38" t="s">
         <v>990</v>
-      </c>
-      <c r="D145" s="38" t="s">
-        <v>991</v>
       </c>
       <c r="E145" s="38">
         <v>1</v>
@@ -68886,21 +68876,21 @@
       <c r="K145" s="38"/>
       <c r="L145" s="38"/>
       <c r="M145" s="38" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="38" t="s">
+        <v>992</v>
+      </c>
+      <c r="B146" s="38" t="s">
         <v>993</v>
       </c>
-      <c r="B146" s="38" t="s">
+      <c r="C146" s="38" t="s">
         <v>994</v>
       </c>
-      <c r="C146" s="38" t="s">
-        <v>995</v>
-      </c>
       <c r="D146" s="342" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E146" s="38">
         <v>32</v>
@@ -68918,7 +68908,7 @@
         <v>51200</v>
       </c>
       <c r="J146" s="38" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K146" s="38"/>
       <c r="L146" s="38"/>
@@ -68926,16 +68916,16 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="38" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B147" s="38" t="s">
+        <v>996</v>
+      </c>
+      <c r="C147" s="38" t="s">
         <v>997</v>
       </c>
-      <c r="C147" s="38" t="s">
+      <c r="D147" s="38" t="s">
         <v>998</v>
-      </c>
-      <c r="D147" s="38" t="s">
-        <v>999</v>
       </c>
       <c r="E147" s="38">
         <v>96</v>
@@ -68953,7 +68943,7 @@
         <v>153600</v>
       </c>
       <c r="J147" s="38" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K147" s="38"/>
       <c r="L147" s="38"/>
@@ -68961,16 +68951,16 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="38" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B148" s="38" t="s">
+        <v>999</v>
+      </c>
+      <c r="C148" s="375" t="s">
         <v>1000</v>
       </c>
-      <c r="C148" s="375" t="s">
+      <c r="D148" s="342" t="s">
         <v>1001</v>
-      </c>
-      <c r="D148" s="342" t="s">
-        <v>1002</v>
       </c>
       <c r="E148" s="38">
         <v>16</v>
@@ -68991,21 +68981,21 @@
       <c r="K148" s="38"/>
       <c r="L148" s="38"/>
       <c r="M148" s="38" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="38" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B149" s="38" t="s">
         <v>1004</v>
       </c>
-      <c r="B149" s="38" t="s">
+      <c r="C149" s="38" t="s">
         <v>1005</v>
       </c>
-      <c r="C149" s="38" t="s">
+      <c r="D149" s="342" t="s">
         <v>1006</v>
-      </c>
-      <c r="D149" s="342" t="s">
-        <v>1007</v>
       </c>
       <c r="E149" s="38">
         <v>1</v>
@@ -69029,16 +69019,16 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="38" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B150" s="38" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C150" s="38" t="s">
         <v>1008</v>
       </c>
-      <c r="C150" s="38" t="s">
+      <c r="D150" s="342" t="s">
         <v>1009</v>
-      </c>
-      <c r="D150" s="342" t="s">
-        <v>1010</v>
       </c>
       <c r="E150" s="38">
         <v>1</v>
@@ -69062,16 +69052,16 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="38" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B151" s="38" t="s">
         <v>1011</v>
       </c>
-      <c r="B151" s="38" t="s">
+      <c r="C151" s="38" t="s">
         <v>1012</v>
       </c>
-      <c r="C151" s="38" t="s">
+      <c r="D151" s="342" t="s">
         <v>1013</v>
-      </c>
-      <c r="D151" s="342" t="s">
-        <v>1014</v>
       </c>
       <c r="E151" s="38">
         <v>1</v>
@@ -69095,16 +69085,16 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="38" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B152" s="38" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C152" s="38" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D152" s="342" t="s">
         <v>1013</v>
-      </c>
-      <c r="D152" s="342" t="s">
-        <v>1014</v>
       </c>
       <c r="E152" s="38">
         <v>1</v>
@@ -69125,21 +69115,21 @@
       <c r="K152" s="38"/>
       <c r="L152" s="38"/>
       <c r="M152" s="38" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B153" s="38" t="s">
         <v>1017</v>
       </c>
-      <c r="B153" s="38" t="s">
-        <v>1018</v>
-      </c>
       <c r="C153" s="38" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D153" s="342" t="s">
         <v>1013</v>
-      </c>
-      <c r="D153" s="342" t="s">
-        <v>1014</v>
       </c>
       <c r="E153" s="38">
         <v>1</v>
@@ -69163,16 +69153,16 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="38" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B154" s="38" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C154" s="38" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D154" s="342" t="s">
         <v>1013</v>
-      </c>
-      <c r="D154" s="342" t="s">
-        <v>1014</v>
       </c>
       <c r="E154" s="38">
         <v>1</v>
@@ -69196,16 +69186,16 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="38" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B155" s="38" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C155" s="38" t="s">
         <v>1020</v>
       </c>
-      <c r="C155" s="38" t="s">
+      <c r="D155" s="38" t="s">
         <v>1021</v>
-      </c>
-      <c r="D155" s="38" t="s">
-        <v>1022</v>
       </c>
       <c r="E155" s="38">
         <v>2</v>
@@ -69229,16 +69219,16 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B156" s="38" t="s">
         <v>1019</v>
       </c>
-      <c r="B156" s="38" t="s">
+      <c r="C156" s="38" t="s">
         <v>1020</v>
       </c>
-      <c r="C156" s="38" t="s">
+      <c r="D156" s="38" t="s">
         <v>1021</v>
-      </c>
-      <c r="D156" s="38" t="s">
-        <v>1022</v>
       </c>
       <c r="E156" s="38">
         <v>2</v>
@@ -69262,13 +69252,13 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="38" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B157" s="38" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C157" s="38" t="s">
         <v>1023</v>
-      </c>
-      <c r="C157" s="38" t="s">
-        <v>1024</v>
       </c>
       <c r="D157" s="38"/>
       <c r="E157" s="38">
@@ -69287,7 +69277,7 @@
         <v>7168</v>
       </c>
       <c r="J157" s="38" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K157" s="38"/>
       <c r="L157" s="38"/>
@@ -69295,13 +69285,13 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="38" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B158" s="38" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C158" s="38" t="s">
         <v>1025</v>
-      </c>
-      <c r="C158" s="38" t="s">
-        <v>1026</v>
       </c>
       <c r="D158" s="38"/>
       <c r="E158" s="38">
@@ -69320,7 +69310,7 @@
         <v>7776</v>
       </c>
       <c r="J158" s="38" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K158" s="38"/>
       <c r="L158" s="38"/>
@@ -69328,16 +69318,16 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="38" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B159" s="38" t="s">
         <v>1027</v>
       </c>
-      <c r="B159" s="38" t="s">
+      <c r="C159" s="38" t="s">
         <v>1028</v>
       </c>
-      <c r="C159" s="38" t="s">
+      <c r="D159" s="342" t="s">
         <v>1029</v>
-      </c>
-      <c r="D159" s="342" t="s">
-        <v>1030</v>
       </c>
       <c r="E159" s="38">
         <v>4</v>
@@ -69355,7 +69345,7 @@
         <v>9280</v>
       </c>
       <c r="J159" s="38" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K159" s="38"/>
       <c r="L159" s="38"/>
@@ -69363,16 +69353,16 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B160" s="38" t="s">
         <v>1031</v>
-      </c>
-      <c r="B160" s="38" t="s">
-        <v>1032</v>
       </c>
       <c r="C160" s="38">
         <v>3100306</v>
       </c>
       <c r="D160" s="342" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E160" s="38">
         <v>1</v>
@@ -69396,16 +69386,16 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="38" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B161" s="38" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C161" s="38">
         <v>3100306</v>
       </c>
       <c r="D161" s="342" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E161" s="38">
         <v>1</v>
@@ -69426,21 +69416,21 @@
       <c r="K161" s="38"/>
       <c r="L161" s="38"/>
       <c r="M161" s="38" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="38" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B162" s="38" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C162" s="38">
         <v>3100306</v>
       </c>
       <c r="D162" s="342" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E162" s="38">
         <v>1</v>
@@ -69461,21 +69451,21 @@
       <c r="K162" s="38"/>
       <c r="L162" s="38"/>
       <c r="M162" s="38" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="38" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B163" s="38" t="s">
         <v>1037</v>
-      </c>
-      <c r="B163" s="38" t="s">
-        <v>1038</v>
       </c>
       <c r="C163" s="38">
         <v>97775332</v>
       </c>
       <c r="D163" s="38" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E163" s="38">
         <v>1</v>
@@ -69499,16 +69489,16 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="38" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B164" s="38" t="s">
         <v>1040</v>
-      </c>
-      <c r="B164" s="38" t="s">
-        <v>1041</v>
       </c>
       <c r="C164" s="38">
         <v>97775332</v>
       </c>
       <c r="D164" s="38" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E164" s="38">
         <v>1</v>
@@ -69532,16 +69522,16 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="38" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B165" s="38" t="s">
         <v>1042</v>
       </c>
-      <c r="B165" s="38" t="s">
+      <c r="C165" s="38" t="s">
         <v>1043</v>
       </c>
-      <c r="C165" s="38" t="s">
+      <c r="D165" s="38" t="s">
         <v>1044</v>
-      </c>
-      <c r="D165" s="38" t="s">
-        <v>1045</v>
       </c>
       <c r="E165" s="38">
         <v>1</v>
@@ -69565,16 +69555,16 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="38" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B166" s="38" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C166" s="38" t="s">
         <v>1043</v>
       </c>
-      <c r="C166" s="38" t="s">
+      <c r="D166" s="38" t="s">
         <v>1044</v>
-      </c>
-      <c r="D166" s="38" t="s">
-        <v>1045</v>
       </c>
       <c r="E166" s="38">
         <v>1</v>
@@ -69618,13 +69608,13 @@
       <c r="D168" s="38"/>
       <c r="E168" s="38"/>
       <c r="F168" s="38" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G168" s="38">
         <v>32125</v>
       </c>
       <c r="H168" s="44" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I168" s="44">
         <v>252383</v>
@@ -69645,13 +69635,13 @@
       <c r="D169" s="38"/>
       <c r="E169" s="38"/>
       <c r="F169" s="38" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G169" s="38">
         <v>32.125</v>
       </c>
       <c r="H169" s="44" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I169" s="44">
         <v>252.38300000000001</v>
@@ -69670,7 +69660,7 @@
       <c r="F170" s="38"/>
       <c r="G170" s="38"/>
       <c r="H170" s="38" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I170" s="38">
         <f>(I169-(I146-I147))/1000</f>
@@ -69787,66 +69777,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="154" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B1" s="323">
         <v>43910</v>
       </c>
-      <c r="C1" s="480" t="s">
+      <c r="C1" s="479" t="s">
+        <v>816</v>
+      </c>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="476" t="s">
         <v>817</v>
       </c>
-      <c r="D1" s="480"/>
-      <c r="E1" s="480"/>
-      <c r="F1" s="477" t="s">
+      <c r="G1" s="476"/>
+      <c r="H1" s="476"/>
+      <c r="I1" s="477" t="s">
         <v>818</v>
       </c>
-      <c r="G1" s="477"/>
-      <c r="H1" s="477"/>
-      <c r="I1" s="478" t="s">
+      <c r="J1" s="477"/>
+      <c r="K1" s="478" t="s">
         <v>819</v>
       </c>
-      <c r="J1" s="478"/>
-      <c r="K1" s="479" t="s">
-        <v>820</v>
-      </c>
-      <c r="L1" s="479"/>
+      <c r="L1" s="478"/>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="154" t="s">
+        <v>820</v>
+      </c>
+      <c r="B2" s="187" t="s">
         <v>821</v>
       </c>
-      <c r="B2" s="187" t="s">
+      <c r="C2" s="187" t="s">
         <v>822</v>
       </c>
-      <c r="C2" s="187" t="s">
+      <c r="D2" s="187" t="s">
         <v>823</v>
       </c>
-      <c r="D2" s="187" t="s">
+      <c r="E2" s="187" t="s">
         <v>824</v>
       </c>
-      <c r="E2" s="187" t="s">
+      <c r="F2" s="187" t="s">
         <v>825</v>
       </c>
-      <c r="F2" s="187" t="s">
+      <c r="G2" s="187" t="s">
         <v>826</v>
       </c>
-      <c r="G2" s="187" t="s">
+      <c r="H2" s="187" t="s">
+        <v>833</v>
+      </c>
+      <c r="I2" s="187" t="s">
         <v>827</v>
       </c>
-      <c r="H2" s="187" t="s">
+      <c r="J2" s="187" t="s">
+        <v>828</v>
+      </c>
+      <c r="K2" s="187" t="s">
+        <v>829</v>
+      </c>
+      <c r="L2" s="187" t="s">
         <v>834</v>
-      </c>
-      <c r="I2" s="187" t="s">
-        <v>828</v>
-      </c>
-      <c r="J2" s="187" t="s">
-        <v>829</v>
-      </c>
-      <c r="K2" s="187" t="s">
-        <v>830</v>
-      </c>
-      <c r="L2" s="187" t="s">
-        <v>835</v>
       </c>
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
@@ -69857,7 +69847,7 @@
       </c>
       <c r="B3" s="324"/>
       <c r="C3" s="325" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D3" s="325"/>
       <c r="E3" s="324"/>
@@ -69876,10 +69866,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="326" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C4" s="326" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D4" s="326">
         <v>2</v>
@@ -69890,7 +69880,7 @@
       <c r="F4" s="327"/>
       <c r="G4" s="327"/>
       <c r="H4" s="328" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I4" s="329"/>
       <c r="J4" s="329"/>
@@ -69935,7 +69925,7 @@
       </c>
       <c r="B6" s="324"/>
       <c r="C6" s="325" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D6" s="324"/>
       <c r="E6" s="324"/>
@@ -69954,10 +69944,10 @@
         <v>2.1</v>
       </c>
       <c r="B7" s="326" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C7" s="326" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D7" s="326">
         <v>3</v>
@@ -69968,7 +69958,7 @@
       <c r="F7" s="327"/>
       <c r="G7" s="327"/>
       <c r="H7" s="327" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I7" s="329"/>
       <c r="J7" s="329"/>
@@ -69988,10 +69978,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B8" s="326" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C8" s="326" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D8" s="326">
         <v>1</v>
@@ -70002,7 +69992,7 @@
       <c r="F8" s="327"/>
       <c r="G8" s="327"/>
       <c r="H8" s="327" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I8" s="329"/>
       <c r="J8" s="329"/>
@@ -70022,10 +70012,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B9" s="326" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C9" s="326" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D9" s="326">
         <v>4</v>
@@ -70036,7 +70026,7 @@
       <c r="F9" s="327"/>
       <c r="G9" s="327"/>
       <c r="H9" s="327" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I9" s="329"/>
       <c r="J9" s="329"/>
@@ -70057,7 +70047,7 @@
       </c>
       <c r="B10" s="324"/>
       <c r="C10" s="325" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D10" s="324"/>
       <c r="E10" s="324"/>
@@ -70076,10 +70066,10 @@
         <v>3.1</v>
       </c>
       <c r="B11" s="326" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C11" s="326" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D11" s="326">
         <v>2</v>
@@ -70090,7 +70080,7 @@
       <c r="F11" s="327"/>
       <c r="G11" s="327"/>
       <c r="H11" s="327" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I11" s="329"/>
       <c r="J11" s="329"/>
@@ -70110,10 +70100,10 @@
         <v>3.2</v>
       </c>
       <c r="B12" s="326" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C12" s="326" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D12" s="326">
         <v>2</v>
@@ -70124,7 +70114,7 @@
       <c r="F12" s="327"/>
       <c r="G12" s="327"/>
       <c r="H12" s="327" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I12" s="329"/>
       <c r="J12" s="329"/>
@@ -70145,7 +70135,7 @@
       </c>
       <c r="B13" s="324"/>
       <c r="C13" s="325" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D13" s="324"/>
       <c r="E13" s="324"/>
@@ -70189,7 +70179,7 @@
       </c>
       <c r="B15" s="324"/>
       <c r="C15" s="325" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D15" s="324"/>
       <c r="E15" s="324"/>
@@ -70208,10 +70198,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B16" s="326" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C16" s="326" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D16" s="330">
         <v>2</v>
@@ -70222,7 +70212,7 @@
       <c r="F16" s="327"/>
       <c r="G16" s="327"/>
       <c r="H16" s="327" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I16" s="329"/>
       <c r="J16" s="329"/>
@@ -70242,10 +70232,10 @@
         <v>5.2</v>
       </c>
       <c r="B17" s="326" t="s">
+        <v>847</v>
+      </c>
+      <c r="C17" s="326" t="s">
         <v>848</v>
-      </c>
-      <c r="C17" s="326" t="s">
-        <v>849</v>
       </c>
       <c r="D17" s="330">
         <v>2</v>
@@ -70256,7 +70246,7 @@
       <c r="F17" s="327"/>
       <c r="G17" s="327"/>
       <c r="H17" s="327" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I17" s="329"/>
       <c r="J17" s="329"/>
@@ -70277,7 +70267,7 @@
       </c>
       <c r="B18" s="324"/>
       <c r="C18" s="325" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D18" s="324"/>
       <c r="E18" s="324"/>
@@ -70296,10 +70286,10 @@
         <v>6.1</v>
       </c>
       <c r="B19" s="326" t="s">
+        <v>842</v>
+      </c>
+      <c r="C19" s="326" t="s">
         <v>843</v>
-      </c>
-      <c r="C19" s="326" t="s">
-        <v>844</v>
       </c>
       <c r="D19" s="326">
         <v>3</v>
@@ -70310,7 +70300,7 @@
       <c r="F19" s="327"/>
       <c r="G19" s="327"/>
       <c r="H19" s="327" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I19" s="329"/>
       <c r="J19" s="329"/>
@@ -70331,7 +70321,7 @@
       </c>
       <c r="B20" s="324"/>
       <c r="C20" s="325" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D20" s="324"/>
       <c r="E20" s="324"/>
@@ -70350,10 +70340,10 @@
         <v>7.1</v>
       </c>
       <c r="B21" s="326" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C21" s="326" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D21" s="326">
         <v>4</v>
@@ -70364,7 +70354,7 @@
       <c r="F21" s="327"/>
       <c r="G21" s="327"/>
       <c r="H21" s="327" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I21" s="329"/>
       <c r="J21" s="329"/>
@@ -70436,16 +70426,16 @@
     <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="154"/>
       <c r="B25" s="323"/>
-      <c r="C25" s="480" t="s">
+      <c r="C25" s="479" t="s">
+        <v>816</v>
+      </c>
+      <c r="D25" s="479"/>
+      <c r="E25" s="479"/>
+      <c r="F25" s="476" t="s">
         <v>817</v>
       </c>
-      <c r="D25" s="480"/>
-      <c r="E25" s="480"/>
-      <c r="F25" s="477" t="s">
-        <v>818</v>
-      </c>
-      <c r="G25" s="477"/>
-      <c r="H25" s="477"/>
+      <c r="G25" s="476"/>
+      <c r="H25" s="476"/>
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
@@ -70455,28 +70445,28 @@
     </row>
     <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="154" t="s">
+        <v>869</v>
+      </c>
+      <c r="B26" s="187" t="s">
         <v>870</v>
       </c>
-      <c r="B26" s="187" t="s">
+      <c r="C26" s="187" t="s">
         <v>871</v>
       </c>
-      <c r="C26" s="187" t="s">
-        <v>872</v>
-      </c>
       <c r="D26" s="187" t="s">
+        <v>823</v>
+      </c>
+      <c r="E26" s="187" t="s">
         <v>824</v>
       </c>
-      <c r="E26" s="187" t="s">
+      <c r="F26" s="187" t="s">
         <v>825</v>
       </c>
-      <c r="F26" s="187" t="s">
+      <c r="G26" s="187" t="s">
         <v>826</v>
       </c>
-      <c r="G26" s="187" t="s">
-        <v>827</v>
-      </c>
       <c r="H26" s="187" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
@@ -70491,7 +70481,7 @@
       </c>
       <c r="B27" s="324"/>
       <c r="C27" s="325" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D27" s="325"/>
       <c r="E27" s="324"/>
@@ -70547,7 +70537,7 @@
       </c>
       <c r="B30" s="324"/>
       <c r="C30" s="325" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D30" s="324"/>
       <c r="E30" s="324"/>
@@ -70621,7 +70611,7 @@
       </c>
       <c r="B34" s="324"/>
       <c r="C34" s="325" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D34" s="324"/>
       <c r="E34" s="324"/>
@@ -70677,7 +70667,7 @@
       </c>
       <c r="B37" s="324"/>
       <c r="C37" s="325" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D37" s="324"/>
       <c r="E37" s="324"/>
@@ -70715,7 +70705,7 @@
       </c>
       <c r="B39" s="324"/>
       <c r="C39" s="325" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D39" s="324"/>
       <c r="E39" s="324"/>
@@ -70734,7 +70724,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B40" s="326" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C40" s="326"/>
       <c r="D40" s="330"/>
@@ -70773,7 +70763,7 @@
       </c>
       <c r="B42" s="324"/>
       <c r="C42" s="325" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D42" s="324"/>
       <c r="E42" s="324"/>
@@ -70792,10 +70782,10 @@
         <v>6.1</v>
       </c>
       <c r="B43" s="326" t="s">
+        <v>874</v>
+      </c>
+      <c r="C43" s="326" t="s">
         <v>875</v>
-      </c>
-      <c r="C43" s="326" t="s">
-        <v>876</v>
       </c>
       <c r="D43" s="326"/>
       <c r="E43" s="326"/>
@@ -70815,7 +70805,7 @@
       </c>
       <c r="B44" s="324"/>
       <c r="C44" s="325" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D44" s="324"/>
       <c r="E44" s="324"/>
@@ -72412,12 +72402,12 @@
       <c r="C19" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="481" t="s">
+      <c r="G19" s="480" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="481"/>
-      <c r="I19" s="481"/>
-      <c r="J19" s="481"/>
+      <c r="H19" s="480"/>
+      <c r="I19" s="480"/>
+      <c r="J19" s="480"/>
       <c r="L19" s="30" t="s">
         <v>97</v>
       </c>
@@ -74673,22 +74663,22 @@
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="165"/>
-      <c r="B59" s="460" t="s">
-        <v>578</v>
-      </c>
-      <c r="C59" s="482"/>
-      <c r="D59" s="482"/>
+      <c r="B59" s="453" t="s">
+        <v>577</v>
+      </c>
+      <c r="C59" s="481"/>
+      <c r="D59" s="481"/>
       <c r="E59"/>
       <c r="F59" s="165"/>
-      <c r="G59" s="460" t="s">
-        <v>579</v>
-      </c>
-      <c r="H59" s="482"/>
-      <c r="I59" s="482"/>
+      <c r="G59" s="453" t="s">
+        <v>578</v>
+      </c>
+      <c r="H59" s="481"/>
+      <c r="I59" s="481"/>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="168" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B60" s="120">
         <v>1</v>
@@ -74701,7 +74691,7 @@
       </c>
       <c r="E60"/>
       <c r="F60" s="168" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G60" s="120">
         <v>1</v>
@@ -74715,7 +74705,7 @@
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="120" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B61" s="165">
         <v>6</v>
@@ -74728,7 +74718,7 @@
       </c>
       <c r="E61"/>
       <c r="F61" s="120" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G61" s="165">
         <v>6</v>
@@ -74742,7 +74732,7 @@
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="120" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B62" s="165">
         <v>6</v>
@@ -74755,7 +74745,7 @@
       </c>
       <c r="E62"/>
       <c r="F62" s="120" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G62" s="165">
         <v>6</v>
@@ -74769,7 +74759,7 @@
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="120" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B63" s="165">
         <v>6</v>
@@ -74782,7 +74772,7 @@
       </c>
       <c r="E63"/>
       <c r="F63" s="120" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G63" s="165">
         <v>6</v>
@@ -74796,7 +74786,7 @@
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="120" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B64" s="165">
         <v>6</v>
@@ -74809,7 +74799,7 @@
       </c>
       <c r="E64"/>
       <c r="F64" s="120" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G64" s="165">
         <v>6</v>
@@ -74823,7 +74813,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="120" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B65" s="165">
         <v>6</v>
@@ -74836,7 +74826,7 @@
       </c>
       <c r="E65"/>
       <c r="F65" s="120" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G65" s="165">
         <v>6</v>
@@ -74850,7 +74840,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="120" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B66" s="165">
         <v>0</v>
@@ -74863,7 +74853,7 @@
       </c>
       <c r="E66"/>
       <c r="F66" s="120" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G66" s="165">
         <v>0</v>
@@ -74877,7 +74867,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="120" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B67" s="165">
         <f>SUM(B61:B66)</f>
@@ -74893,7 +74883,7 @@
       </c>
       <c r="E67"/>
       <c r="F67" s="120" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G67" s="165">
         <f>SUM(G61:G66)</f>
@@ -74910,7 +74900,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="120" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B68" s="165">
         <f>B67*B60</f>
@@ -74926,7 +74916,7 @@
       </c>
       <c r="E68"/>
       <c r="F68" s="120" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G68" s="165">
         <f>G67*G60</f>
@@ -74943,7 +74933,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="120" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B69" s="166">
         <f>Overview!$B$119*B68</f>
@@ -74959,7 +74949,7 @@
       </c>
       <c r="E69"/>
       <c r="F69" s="120" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G69" s="166">
         <f>Overview!$B$119*G68</f>
@@ -74976,22 +74966,22 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="165"/>
-      <c r="B70" s="460" t="s">
-        <v>577</v>
-      </c>
-      <c r="C70" s="460"/>
-      <c r="D70" s="460"/>
+      <c r="B70" s="453" t="s">
+        <v>576</v>
+      </c>
+      <c r="C70" s="453"/>
+      <c r="D70" s="453"/>
       <c r="E70"/>
       <c r="F70" s="165"/>
-      <c r="G70" s="460" t="s">
-        <v>577</v>
-      </c>
-      <c r="H70" s="460"/>
-      <c r="I70" s="460"/>
+      <c r="G70" s="453" t="s">
+        <v>576</v>
+      </c>
+      <c r="H70" s="453"/>
+      <c r="I70" s="453"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="120" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B71" s="165">
         <f>B67*52/12</f>
@@ -75007,7 +74997,7 @@
       </c>
       <c r="E71"/>
       <c r="F71" s="120" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G71" s="165">
         <f>G67*52/12</f>
@@ -75024,7 +75014,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="120" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B72" s="165">
         <f>B71*B60</f>
@@ -75040,7 +75030,7 @@
       </c>
       <c r="E72"/>
       <c r="F72" s="120" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G72" s="165">
         <f>G71*G60</f>
@@ -75057,7 +75047,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="120" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B73" s="166">
         <f>B72*Overview!$B$119</f>
@@ -75073,7 +75063,7 @@
       </c>
       <c r="E73"/>
       <c r="F73" s="120" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G73" s="166">
         <f>G72*Overview!$B$119</f>
